--- a/GATEWAY/S1#111#JOINSOFTSRLXX/Joinsoft_Srl/Gestione_Stabilimenti_Termali/Ver_6.31/report-checklist.xlsx
+++ b/GATEWAY/S1#111#JOINSOFTSRLXX/Joinsoft_Srl/Gestione_Stabilimenti_Termali/Ver_6.31/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F747C0-4C9E-497F-B911-2F2CF60892C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66315AF-30B9-46CA-A344-8FA5D6038767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="-13620" windowWidth="21840" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="647">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2345,6 +2345,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.6940e30e4e561f703fb6ca5eab2da3b67d7dbf35b4a8b77ab5513bd27c8edf6d.94a7781d3b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Test non previsto per il solo  accreditamento per RSA e RAD</t>
   </si>
 </sst>
 </file>
@@ -2970,6 +2973,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2992,7 +2996,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{565105C8-FFD6-432C-8B2E-BD1D172FCD26}"/>
@@ -4440,14 +4443,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="R165" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J191" sqref="J191"/>
+      <selection pane="bottomRight" activeCell="L194" sqref="L194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4489,14 +4491,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54" t="s">
         <v>639</v>
       </c>
-      <c r="D2" s="52"/>
+      <c r="D2" s="53"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4517,14 +4519,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="61" t="s">
         <v>640</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4545,12 +4547,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="60" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="61" t="s">
         <v>641</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4572,12 +4574,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="D5" s="52"/>
+      <c r="D5" s="53"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4598,8 +4600,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4734,7 +4736,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>4</v>
       </c>
@@ -4754,9 +4756,15 @@
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
       <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
+      <c r="J10" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
       <c r="O10" s="38"/>
@@ -4771,7 +4779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35">
         <v>28</v>
       </c>
@@ -4791,9 +4799,15 @@
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
       <c r="I11" s="42"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
+      <c r="J11" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
       <c r="O11" s="38"/>
@@ -4808,7 +4822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35">
         <v>29</v>
       </c>
@@ -4828,9 +4842,15 @@
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="42"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
+      <c r="J12" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
       <c r="O12" s="38"/>
@@ -4845,7 +4865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35">
         <v>30</v>
       </c>
@@ -4865,9 +4885,15 @@
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
       <c r="I13" s="42"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
+      <c r="J13" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
       <c r="O13" s="38"/>
@@ -4882,7 +4908,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35">
         <v>31</v>
       </c>
@@ -4943,7 +4969,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35">
         <v>32</v>
       </c>
@@ -5004,7 +5030,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35">
         <v>33</v>
       </c>
@@ -5024,9 +5050,15 @@
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
       <c r="I16" s="42"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
+      <c r="J16" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L16" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
       <c r="O16" s="38"/>
@@ -5041,7 +5073,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35">
         <v>34</v>
       </c>
@@ -5061,9 +5093,15 @@
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
       <c r="I17" s="42"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
+      <c r="J17" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L17" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
       <c r="O17" s="38"/>
@@ -5078,7 +5116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35">
         <v>35</v>
       </c>
@@ -5098,9 +5136,15 @@
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
       <c r="I18" s="42"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
+      <c r="J18" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
       <c r="O18" s="38"/>
@@ -5115,7 +5159,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35">
         <v>36</v>
       </c>
@@ -5135,9 +5179,15 @@
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="42"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
+      <c r="J19" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L19" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
       <c r="O19" s="38"/>
@@ -5152,7 +5202,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35">
         <v>37</v>
       </c>
@@ -5172,9 +5222,15 @@
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
+      <c r="J20" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L20" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M20" s="38"/>
       <c r="N20" s="38"/>
       <c r="O20" s="38"/>
@@ -5189,7 +5245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="35">
         <v>38</v>
       </c>
@@ -5209,9 +5265,15 @@
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
       <c r="I21" s="42"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
+      <c r="J21" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L21" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
       <c r="O21" s="38"/>
@@ -5226,7 +5288,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35">
         <v>39</v>
       </c>
@@ -5287,7 +5349,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="35">
         <v>40</v>
       </c>
@@ -5348,7 +5410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="35">
         <v>41</v>
       </c>
@@ -5368,9 +5430,15 @@
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
       <c r="I24" s="42"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
+      <c r="J24" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
       <c r="O24" s="38"/>
@@ -5385,7 +5453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="35">
         <v>42</v>
       </c>
@@ -5405,9 +5473,15 @@
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
       <c r="I25" s="42"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
+      <c r="J25" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
       <c r="O25" s="38"/>
@@ -5422,7 +5496,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="35">
         <v>43</v>
       </c>
@@ -5442,9 +5516,15 @@
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
       <c r="I26" s="42"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
+      <c r="J26" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
       <c r="O26" s="38"/>
@@ -5459,7 +5539,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35">
         <v>44</v>
       </c>
@@ -5479,9 +5559,15 @@
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
       <c r="I27" s="42"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
+      <c r="J27" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L27" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M27" s="38"/>
       <c r="N27" s="38"/>
       <c r="O27" s="38"/>
@@ -5498,7 +5584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35">
         <v>45</v>
       </c>
@@ -5518,9 +5604,15 @@
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
       <c r="I28" s="42"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
+      <c r="J28" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
       <c r="O28" s="38"/>
@@ -5537,7 +5629,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="35">
         <v>46</v>
       </c>
@@ -5557,9 +5649,15 @@
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
       <c r="I29" s="42"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
+      <c r="J29" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
       <c r="O29" s="38"/>
@@ -5576,7 +5674,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="35">
         <v>47</v>
       </c>
@@ -5633,7 +5731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="35">
         <v>48</v>
       </c>
@@ -5696,7 +5794,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="35">
         <v>49</v>
       </c>
@@ -5716,9 +5814,15 @@
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
       <c r="I32" s="42"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
+      <c r="J32" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M32" s="38"/>
       <c r="N32" s="38"/>
       <c r="O32" s="38"/>
@@ -5735,7 +5839,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="35">
         <v>50</v>
       </c>
@@ -5755,9 +5859,15 @@
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
       <c r="I33" s="42"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
+      <c r="J33" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L33" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M33" s="38"/>
       <c r="N33" s="38"/>
       <c r="O33" s="38"/>
@@ -5774,7 +5884,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="35">
         <v>51</v>
       </c>
@@ -5794,9 +5904,15 @@
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
       <c r="I34" s="42"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
+      <c r="J34" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K34" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L34" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M34" s="38"/>
       <c r="N34" s="38"/>
       <c r="O34" s="38"/>
@@ -5813,7 +5929,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="35">
         <v>53</v>
       </c>
@@ -5833,9 +5949,15 @@
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
       <c r="I35" s="42"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
+      <c r="J35" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K35" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L35" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
       <c r="O35" s="38"/>
@@ -5850,7 +5972,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="35">
         <v>55</v>
       </c>
@@ -5870,9 +5992,15 @@
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
       <c r="I36" s="42"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
+      <c r="J36" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K36" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L36" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
       <c r="O36" s="38"/>
@@ -5887,7 +6015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="35">
         <v>56</v>
       </c>
@@ -5907,9 +6035,15 @@
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
       <c r="I37" s="42"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
+      <c r="J37" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K37" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L37" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M37" s="38"/>
       <c r="N37" s="38"/>
       <c r="O37" s="38"/>
@@ -5924,7 +6058,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="35">
         <v>57</v>
       </c>
@@ -5944,9 +6078,15 @@
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
       <c r="I38" s="42"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
+      <c r="J38" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K38" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L38" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M38" s="38"/>
       <c r="N38" s="38"/>
       <c r="O38" s="38"/>
@@ -5961,7 +6101,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="35">
         <v>59</v>
       </c>
@@ -5981,9 +6121,15 @@
       <c r="G39" s="37"/>
       <c r="H39" s="37"/>
       <c r="I39" s="42"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
+      <c r="J39" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K39" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L39" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
       <c r="O39" s="38"/>
@@ -5998,7 +6144,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="35">
         <v>60</v>
       </c>
@@ -6018,9 +6164,15 @@
       <c r="G40" s="37"/>
       <c r="H40" s="37"/>
       <c r="I40" s="42"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
+      <c r="J40" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K40" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L40" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
       <c r="O40" s="38"/>
@@ -6035,7 +6187,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="35">
         <v>61</v>
       </c>
@@ -6055,9 +6207,15 @@
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
       <c r="I41" s="42"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
+      <c r="J41" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K41" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L41" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
       <c r="O41" s="38"/>
@@ -6072,7 +6230,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="35">
         <v>62</v>
       </c>
@@ -6092,9 +6250,15 @@
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
       <c r="I42" s="42"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
+      <c r="J42" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K42" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L42" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
       <c r="O42" s="38"/>
@@ -6109,7 +6273,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="35">
         <v>64</v>
       </c>
@@ -6129,9 +6293,15 @@
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
       <c r="I43" s="42"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
+      <c r="J43" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L43" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M43" s="38"/>
       <c r="N43" s="38"/>
       <c r="O43" s="38"/>
@@ -6146,7 +6316,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="35">
         <v>66</v>
       </c>
@@ -6166,9 +6336,15 @@
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
       <c r="I44" s="42"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
+      <c r="J44" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K44" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L44" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M44" s="38"/>
       <c r="N44" s="38"/>
       <c r="O44" s="38"/>
@@ -6183,7 +6359,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="35">
         <v>67</v>
       </c>
@@ -6203,9 +6379,15 @@
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
       <c r="I45" s="42"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
+      <c r="J45" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K45" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L45" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
       <c r="O45" s="38"/>
@@ -6220,7 +6402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="35">
         <v>68</v>
       </c>
@@ -6240,9 +6422,15 @@
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
       <c r="I46" s="42"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
+      <c r="J46" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K46" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L46" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M46" s="38"/>
       <c r="N46" s="38"/>
       <c r="O46" s="38"/>
@@ -6257,7 +6445,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="35">
         <v>69</v>
       </c>
@@ -6277,9 +6465,15 @@
       <c r="G47" s="37"/>
       <c r="H47" s="37"/>
       <c r="I47" s="42"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
+      <c r="J47" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K47" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L47" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
       <c r="O47" s="38"/>
@@ -6294,7 +6488,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="35">
         <v>70</v>
       </c>
@@ -6314,9 +6508,15 @@
       <c r="G48" s="37"/>
       <c r="H48" s="37"/>
       <c r="I48" s="42"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
+      <c r="J48" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K48" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L48" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M48" s="38"/>
       <c r="N48" s="38"/>
       <c r="O48" s="38"/>
@@ -6331,7 +6531,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="35">
         <v>71</v>
       </c>
@@ -6351,9 +6551,15 @@
       <c r="G49" s="37"/>
       <c r="H49" s="37"/>
       <c r="I49" s="42"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
+      <c r="J49" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K49" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L49" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M49" s="38"/>
       <c r="N49" s="38"/>
       <c r="O49" s="38"/>
@@ -6368,7 +6574,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="35">
         <v>72</v>
       </c>
@@ -6388,9 +6594,15 @@
       <c r="G50" s="37"/>
       <c r="H50" s="37"/>
       <c r="I50" s="42"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
+      <c r="J50" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K50" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L50" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M50" s="38"/>
       <c r="N50" s="38"/>
       <c r="O50" s="38"/>
@@ -6405,7 +6617,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="35">
         <v>73</v>
       </c>
@@ -6425,9 +6637,15 @@
       <c r="G51" s="37"/>
       <c r="H51" s="37"/>
       <c r="I51" s="42"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
+      <c r="J51" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K51" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L51" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M51" s="38"/>
       <c r="N51" s="38"/>
       <c r="O51" s="38"/>
@@ -6442,7 +6660,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="35">
         <v>74</v>
       </c>
@@ -6462,9 +6680,15 @@
       <c r="G52" s="37"/>
       <c r="H52" s="37"/>
       <c r="I52" s="42"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
+      <c r="J52" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K52" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L52" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M52" s="38"/>
       <c r="N52" s="38"/>
       <c r="O52" s="38"/>
@@ -6479,7 +6703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="35">
         <v>76</v>
       </c>
@@ -6540,7 +6764,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="35">
         <v>78</v>
       </c>
@@ -6601,7 +6825,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="35">
         <v>79</v>
       </c>
@@ -6662,7 +6886,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="35">
         <v>80</v>
       </c>
@@ -6723,7 +6947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="35">
         <v>81</v>
       </c>
@@ -6784,7 +7008,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="35">
         <v>83</v>
       </c>
@@ -6845,7 +7069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="35">
         <v>84</v>
       </c>
@@ -6906,7 +7130,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="35">
         <v>85</v>
       </c>
@@ -6967,7 +7191,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="35">
         <v>86</v>
       </c>
@@ -7028,7 +7252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="35">
         <v>87</v>
       </c>
@@ -7089,7 +7313,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="35">
         <v>88</v>
       </c>
@@ -7150,7 +7374,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="35">
         <v>89</v>
       </c>
@@ -7211,7 +7435,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="35">
         <v>90</v>
       </c>
@@ -7272,7 +7496,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="35">
         <v>91</v>
       </c>
@@ -7333,7 +7557,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="35">
         <v>92</v>
       </c>
@@ -7394,7 +7618,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="35">
         <v>93</v>
       </c>
@@ -7455,7 +7679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="35">
         <v>95</v>
       </c>
@@ -7475,9 +7699,15 @@
       <c r="G69" s="37"/>
       <c r="H69" s="37"/>
       <c r="I69" s="42"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
+      <c r="J69" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K69" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L69" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M69" s="38"/>
       <c r="N69" s="38"/>
       <c r="O69" s="38"/>
@@ -7492,7 +7722,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="35">
         <v>97</v>
       </c>
@@ -7512,9 +7742,15 @@
       <c r="G70" s="37"/>
       <c r="H70" s="37"/>
       <c r="I70" s="42"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
+      <c r="J70" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K70" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L70" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M70" s="38"/>
       <c r="N70" s="38"/>
       <c r="O70" s="38"/>
@@ -7529,7 +7765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="35">
         <v>98</v>
       </c>
@@ -7549,9 +7785,15 @@
       <c r="G71" s="37"/>
       <c r="H71" s="37"/>
       <c r="I71" s="42"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="38"/>
+      <c r="J71" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K71" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L71" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M71" s="38"/>
       <c r="N71" s="38"/>
       <c r="O71" s="38"/>
@@ -7566,7 +7808,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="35">
         <v>99</v>
       </c>
@@ -7586,9 +7828,15 @@
       <c r="G72" s="37"/>
       <c r="H72" s="37"/>
       <c r="I72" s="42"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
+      <c r="J72" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K72" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L72" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M72" s="38"/>
       <c r="N72" s="38"/>
       <c r="O72" s="38"/>
@@ -7603,7 +7851,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="35">
         <v>100</v>
       </c>
@@ -7623,9 +7871,15 @@
       <c r="G73" s="37"/>
       <c r="H73" s="37"/>
       <c r="I73" s="42"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
+      <c r="J73" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K73" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L73" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M73" s="38"/>
       <c r="N73" s="38"/>
       <c r="O73" s="38"/>
@@ -7640,7 +7894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="35">
         <v>101</v>
       </c>
@@ -7660,9 +7914,15 @@
       <c r="G74" s="37"/>
       <c r="H74" s="37"/>
       <c r="I74" s="42"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
+      <c r="J74" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K74" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L74" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M74" s="38"/>
       <c r="N74" s="38"/>
       <c r="O74" s="38"/>
@@ -7677,7 +7937,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="35">
         <v>102</v>
       </c>
@@ -7697,9 +7957,15 @@
       <c r="G75" s="37"/>
       <c r="H75" s="37"/>
       <c r="I75" s="42"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
+      <c r="J75" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K75" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L75" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M75" s="38"/>
       <c r="N75" s="38"/>
       <c r="O75" s="38"/>
@@ -7714,7 +7980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="35">
         <v>103</v>
       </c>
@@ -7734,9 +8000,15 @@
       <c r="G76" s="37"/>
       <c r="H76" s="37"/>
       <c r="I76" s="42"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
+      <c r="J76" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K76" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L76" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M76" s="38"/>
       <c r="N76" s="38"/>
       <c r="O76" s="38"/>
@@ -7751,7 +8023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="35">
         <v>104</v>
       </c>
@@ -7771,9 +8043,15 @@
       <c r="G77" s="37"/>
       <c r="H77" s="37"/>
       <c r="I77" s="42"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
+      <c r="J77" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K77" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L77" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M77" s="38"/>
       <c r="N77" s="38"/>
       <c r="O77" s="38"/>
@@ -7788,7 +8066,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="35">
         <v>105</v>
       </c>
@@ -7808,9 +8086,15 @@
       <c r="G78" s="37"/>
       <c r="H78" s="37"/>
       <c r="I78" s="42"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
+      <c r="J78" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K78" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L78" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M78" s="38"/>
       <c r="N78" s="38"/>
       <c r="O78" s="38"/>
@@ -7825,7 +8109,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="35">
         <v>106</v>
       </c>
@@ -7845,9 +8129,15 @@
       <c r="G79" s="37"/>
       <c r="H79" s="37"/>
       <c r="I79" s="42"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="38"/>
+      <c r="J79" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K79" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L79" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M79" s="38"/>
       <c r="N79" s="38"/>
       <c r="O79" s="38"/>
@@ -7862,7 +8152,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="35">
         <v>108</v>
       </c>
@@ -7882,9 +8172,15 @@
       <c r="G80" s="37"/>
       <c r="H80" s="37"/>
       <c r="I80" s="42"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="38"/>
+      <c r="J80" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K80" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L80" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M80" s="38"/>
       <c r="N80" s="38"/>
       <c r="O80" s="38"/>
@@ -7899,7 +8195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="35">
         <v>110</v>
       </c>
@@ -7919,9 +8215,15 @@
       <c r="G81" s="37"/>
       <c r="H81" s="37"/>
       <c r="I81" s="42"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
+      <c r="J81" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K81" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L81" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M81" s="38"/>
       <c r="N81" s="38"/>
       <c r="O81" s="38"/>
@@ -7936,7 +8238,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="35">
         <v>111</v>
       </c>
@@ -7956,9 +8258,15 @@
       <c r="G82" s="37"/>
       <c r="H82" s="37"/>
       <c r="I82" s="42"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="38"/>
+      <c r="J82" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K82" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L82" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M82" s="38"/>
       <c r="N82" s="38"/>
       <c r="O82" s="38"/>
@@ -7973,7 +8281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="35">
         <v>112</v>
       </c>
@@ -7993,9 +8301,15 @@
       <c r="G83" s="37"/>
       <c r="H83" s="37"/>
       <c r="I83" s="42"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="38"/>
+      <c r="J83" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K83" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L83" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M83" s="38"/>
       <c r="N83" s="38"/>
       <c r="O83" s="38"/>
@@ -8010,7 +8324,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="35">
         <v>113</v>
       </c>
@@ -8030,9 +8344,15 @@
       <c r="G84" s="37"/>
       <c r="H84" s="37"/>
       <c r="I84" s="42"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
+      <c r="J84" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K84" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L84" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M84" s="38"/>
       <c r="N84" s="38"/>
       <c r="O84" s="38"/>
@@ -8047,7 +8367,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="35">
         <v>114</v>
       </c>
@@ -8067,9 +8387,15 @@
       <c r="G85" s="37"/>
       <c r="H85" s="37"/>
       <c r="I85" s="42"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38"/>
+      <c r="J85" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K85" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L85" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M85" s="38"/>
       <c r="N85" s="38"/>
       <c r="O85" s="38"/>
@@ -8084,7 +8410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="35">
         <v>115</v>
       </c>
@@ -8104,9 +8430,15 @@
       <c r="G86" s="37"/>
       <c r="H86" s="37"/>
       <c r="I86" s="42"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
+      <c r="J86" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K86" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L86" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M86" s="38"/>
       <c r="N86" s="38"/>
       <c r="O86" s="38"/>
@@ -8121,7 +8453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="35">
         <v>116</v>
       </c>
@@ -8141,9 +8473,15 @@
       <c r="G87" s="37"/>
       <c r="H87" s="37"/>
       <c r="I87" s="42"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="38"/>
+      <c r="J87" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K87" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L87" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M87" s="38"/>
       <c r="N87" s="38"/>
       <c r="O87" s="38"/>
@@ -8158,7 +8496,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="35">
         <v>117</v>
       </c>
@@ -8178,9 +8516,15 @@
       <c r="G88" s="37"/>
       <c r="H88" s="37"/>
       <c r="I88" s="42"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="38"/>
+      <c r="J88" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K88" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L88" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M88" s="38"/>
       <c r="N88" s="38"/>
       <c r="O88" s="38"/>
@@ -8195,7 +8539,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="35">
         <v>118</v>
       </c>
@@ -8215,9 +8559,15 @@
       <c r="G89" s="37"/>
       <c r="H89" s="37"/>
       <c r="I89" s="42"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="38"/>
+      <c r="J89" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K89" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L89" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M89" s="38"/>
       <c r="N89" s="38"/>
       <c r="O89" s="38"/>
@@ -8232,7 +8582,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="35">
         <v>119</v>
       </c>
@@ -8252,9 +8602,15 @@
       <c r="G90" s="37"/>
       <c r="H90" s="37"/>
       <c r="I90" s="42"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
+      <c r="J90" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K90" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L90" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M90" s="38"/>
       <c r="N90" s="38"/>
       <c r="O90" s="38"/>
@@ -8269,7 +8625,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="35">
         <v>120</v>
       </c>
@@ -8289,9 +8645,15 @@
       <c r="G91" s="37"/>
       <c r="H91" s="37"/>
       <c r="I91" s="42"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="38"/>
+      <c r="J91" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K91" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L91" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M91" s="38"/>
       <c r="N91" s="38"/>
       <c r="O91" s="38"/>
@@ -8306,7 +8668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="35">
         <v>121</v>
       </c>
@@ -8326,9 +8688,15 @@
       <c r="G92" s="37"/>
       <c r="H92" s="37"/>
       <c r="I92" s="42"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="38"/>
-      <c r="L92" s="38"/>
+      <c r="J92" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K92" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L92" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M92" s="38"/>
       <c r="N92" s="38"/>
       <c r="O92" s="38"/>
@@ -8343,7 +8711,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="35">
         <v>123</v>
       </c>
@@ -8363,9 +8731,15 @@
       <c r="G93" s="37"/>
       <c r="H93" s="37"/>
       <c r="I93" s="42"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="38"/>
+      <c r="J93" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K93" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L93" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M93" s="38"/>
       <c r="N93" s="38"/>
       <c r="O93" s="38"/>
@@ -8380,7 +8754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="35">
         <v>125</v>
       </c>
@@ -8400,9 +8774,15 @@
       <c r="G94" s="37"/>
       <c r="H94" s="37"/>
       <c r="I94" s="42"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
+      <c r="J94" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K94" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L94" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M94" s="38"/>
       <c r="N94" s="38"/>
       <c r="O94" s="38"/>
@@ -8417,7 +8797,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="35">
         <v>126</v>
       </c>
@@ -8437,9 +8817,15 @@
       <c r="G95" s="37"/>
       <c r="H95" s="37"/>
       <c r="I95" s="42"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38"/>
+      <c r="J95" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K95" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L95" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M95" s="38"/>
       <c r="N95" s="38"/>
       <c r="O95" s="38"/>
@@ -8454,7 +8840,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="35">
         <v>127</v>
       </c>
@@ -8474,9 +8860,15 @@
       <c r="G96" s="37"/>
       <c r="H96" s="37"/>
       <c r="I96" s="42"/>
-      <c r="J96" s="38"/>
-      <c r="K96" s="38"/>
-      <c r="L96" s="38"/>
+      <c r="J96" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K96" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L96" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M96" s="38"/>
       <c r="N96" s="38"/>
       <c r="O96" s="38"/>
@@ -8491,7 +8883,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="35">
         <v>128</v>
       </c>
@@ -8511,9 +8903,15 @@
       <c r="G97" s="37"/>
       <c r="H97" s="37"/>
       <c r="I97" s="42"/>
-      <c r="J97" s="38"/>
-      <c r="K97" s="38"/>
-      <c r="L97" s="38"/>
+      <c r="J97" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K97" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L97" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M97" s="38"/>
       <c r="N97" s="38"/>
       <c r="O97" s="38"/>
@@ -8528,7 +8926,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="35">
         <v>129</v>
       </c>
@@ -8548,9 +8946,15 @@
       <c r="G98" s="37"/>
       <c r="H98" s="37"/>
       <c r="I98" s="42"/>
-      <c r="J98" s="38"/>
-      <c r="K98" s="38"/>
-      <c r="L98" s="38"/>
+      <c r="J98" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K98" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L98" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M98" s="38"/>
       <c r="N98" s="38"/>
       <c r="O98" s="38"/>
@@ -8565,7 +8969,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="35">
         <v>130</v>
       </c>
@@ -8585,9 +8989,15 @@
       <c r="G99" s="37"/>
       <c r="H99" s="37"/>
       <c r="I99" s="42"/>
-      <c r="J99" s="38"/>
-      <c r="K99" s="38"/>
-      <c r="L99" s="38"/>
+      <c r="J99" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K99" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L99" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M99" s="38"/>
       <c r="N99" s="38"/>
       <c r="O99" s="38"/>
@@ -8602,7 +9012,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="35">
         <v>131</v>
       </c>
@@ -8622,9 +9032,15 @@
       <c r="G100" s="37"/>
       <c r="H100" s="37"/>
       <c r="I100" s="42"/>
-      <c r="J100" s="38"/>
-      <c r="K100" s="38"/>
-      <c r="L100" s="38"/>
+      <c r="J100" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K100" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L100" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M100" s="38"/>
       <c r="N100" s="38"/>
       <c r="O100" s="38"/>
@@ -8639,7 +9055,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="35">
         <v>132</v>
       </c>
@@ -8659,9 +9075,15 @@
       <c r="G101" s="37"/>
       <c r="H101" s="37"/>
       <c r="I101" s="42"/>
-      <c r="J101" s="38"/>
-      <c r="K101" s="38"/>
-      <c r="L101" s="38"/>
+      <c r="J101" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K101" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L101" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M101" s="38"/>
       <c r="N101" s="38"/>
       <c r="O101" s="38"/>
@@ -8676,7 +9098,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="35">
         <v>133</v>
       </c>
@@ -8696,9 +9118,15 @@
       <c r="G102" s="37"/>
       <c r="H102" s="37"/>
       <c r="I102" s="42"/>
-      <c r="J102" s="38"/>
-      <c r="K102" s="38"/>
-      <c r="L102" s="38"/>
+      <c r="J102" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K102" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L102" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M102" s="38"/>
       <c r="N102" s="38"/>
       <c r="O102" s="38"/>
@@ -8713,7 +9141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="35">
         <v>134</v>
       </c>
@@ -8733,9 +9161,15 @@
       <c r="G103" s="37"/>
       <c r="H103" s="37"/>
       <c r="I103" s="42"/>
-      <c r="J103" s="38"/>
-      <c r="K103" s="38"/>
-      <c r="L103" s="38"/>
+      <c r="J103" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K103" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L103" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M103" s="38"/>
       <c r="N103" s="38"/>
       <c r="O103" s="38"/>
@@ -8750,7 +9184,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="35">
         <v>135</v>
       </c>
@@ -8770,9 +9204,15 @@
       <c r="G104" s="37"/>
       <c r="H104" s="37"/>
       <c r="I104" s="42"/>
-      <c r="J104" s="38"/>
-      <c r="K104" s="38"/>
-      <c r="L104" s="38"/>
+      <c r="J104" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K104" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L104" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M104" s="38"/>
       <c r="N104" s="38"/>
       <c r="O104" s="38"/>
@@ -8787,7 +9227,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="35">
         <v>136</v>
       </c>
@@ -8807,9 +9247,15 @@
       <c r="G105" s="37"/>
       <c r="H105" s="37"/>
       <c r="I105" s="42"/>
-      <c r="J105" s="38"/>
-      <c r="K105" s="38"/>
-      <c r="L105" s="38"/>
+      <c r="J105" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K105" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L105" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M105" s="38"/>
       <c r="N105" s="38"/>
       <c r="O105" s="38"/>
@@ -8824,7 +9270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="35">
         <v>137</v>
       </c>
@@ -8844,9 +9290,15 @@
       <c r="G106" s="37"/>
       <c r="H106" s="37"/>
       <c r="I106" s="42"/>
-      <c r="J106" s="38"/>
-      <c r="K106" s="38"/>
-      <c r="L106" s="38"/>
+      <c r="J106" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K106" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L106" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M106" s="38"/>
       <c r="N106" s="38"/>
       <c r="O106" s="38"/>
@@ -8861,7 +9313,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="35">
         <v>138</v>
       </c>
@@ -8881,9 +9333,15 @@
       <c r="G107" s="37"/>
       <c r="H107" s="37"/>
       <c r="I107" s="42"/>
-      <c r="J107" s="38"/>
-      <c r="K107" s="38"/>
-      <c r="L107" s="38"/>
+      <c r="J107" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K107" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L107" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M107" s="38"/>
       <c r="N107" s="38"/>
       <c r="O107" s="38"/>
@@ -8898,7 +9356,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="35">
         <v>139</v>
       </c>
@@ -8918,9 +9376,15 @@
       <c r="G108" s="37"/>
       <c r="H108" s="37"/>
       <c r="I108" s="42"/>
-      <c r="J108" s="38"/>
-      <c r="K108" s="38"/>
-      <c r="L108" s="38"/>
+      <c r="J108" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K108" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L108" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M108" s="38"/>
       <c r="N108" s="38"/>
       <c r="O108" s="38"/>
@@ -8935,7 +9399,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="35">
         <v>140</v>
       </c>
@@ -8955,9 +9419,15 @@
       <c r="G109" s="37"/>
       <c r="H109" s="37"/>
       <c r="I109" s="42"/>
-      <c r="J109" s="38"/>
-      <c r="K109" s="38"/>
-      <c r="L109" s="38"/>
+      <c r="J109" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K109" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L109" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M109" s="38"/>
       <c r="N109" s="38"/>
       <c r="O109" s="38"/>
@@ -8972,7 +9442,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="35">
         <v>141</v>
       </c>
@@ -8992,9 +9462,15 @@
       <c r="G110" s="37"/>
       <c r="H110" s="37"/>
       <c r="I110" s="42"/>
-      <c r="J110" s="38"/>
-      <c r="K110" s="38"/>
-      <c r="L110" s="38"/>
+      <c r="J110" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K110" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L110" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M110" s="38"/>
       <c r="N110" s="38"/>
       <c r="O110" s="38"/>
@@ -9009,7 +9485,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="35">
         <v>142</v>
       </c>
@@ -9029,9 +9505,15 @@
       <c r="G111" s="37"/>
       <c r="H111" s="37"/>
       <c r="I111" s="42"/>
-      <c r="J111" s="38"/>
-      <c r="K111" s="38"/>
-      <c r="L111" s="38"/>
+      <c r="J111" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K111" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L111" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M111" s="38"/>
       <c r="N111" s="38"/>
       <c r="O111" s="38"/>
@@ -9046,7 +9528,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="35">
         <v>143</v>
       </c>
@@ -9066,9 +9548,15 @@
       <c r="G112" s="37"/>
       <c r="H112" s="37"/>
       <c r="I112" s="42"/>
-      <c r="J112" s="38"/>
-      <c r="K112" s="38"/>
-      <c r="L112" s="38"/>
+      <c r="J112" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K112" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L112" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M112" s="38"/>
       <c r="N112" s="38"/>
       <c r="O112" s="38"/>
@@ -9083,7 +9571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="35">
         <v>144</v>
       </c>
@@ -9103,9 +9591,15 @@
       <c r="G113" s="37"/>
       <c r="H113" s="37"/>
       <c r="I113" s="42"/>
-      <c r="J113" s="38"/>
-      <c r="K113" s="38"/>
-      <c r="L113" s="38"/>
+      <c r="J113" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K113" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L113" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M113" s="38"/>
       <c r="N113" s="38"/>
       <c r="O113" s="38"/>
@@ -9120,7 +9614,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="35">
         <v>145</v>
       </c>
@@ -9140,9 +9634,15 @@
       <c r="G114" s="37"/>
       <c r="H114" s="37"/>
       <c r="I114" s="42"/>
-      <c r="J114" s="38"/>
-      <c r="K114" s="38"/>
-      <c r="L114" s="38"/>
+      <c r="J114" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K114" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L114" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M114" s="38"/>
       <c r="N114" s="38"/>
       <c r="O114" s="38"/>
@@ -9157,7 +9657,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="35">
         <v>146</v>
       </c>
@@ -9177,9 +9677,15 @@
       <c r="G115" s="37"/>
       <c r="H115" s="37"/>
       <c r="I115" s="42"/>
-      <c r="J115" s="38"/>
-      <c r="K115" s="38"/>
-      <c r="L115" s="38"/>
+      <c r="J115" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K115" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L115" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M115" s="38"/>
       <c r="N115" s="38"/>
       <c r="O115" s="38"/>
@@ -9194,7 +9700,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="35">
         <v>152</v>
       </c>
@@ -9255,7 +9761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="35">
         <v>154</v>
       </c>
@@ -9316,7 +9822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="35">
         <v>155</v>
       </c>
@@ -9377,7 +9883,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="35">
         <v>156</v>
       </c>
@@ -9438,7 +9944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="35">
         <v>159</v>
       </c>
@@ -9499,7 +10005,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="35">
         <v>160</v>
       </c>
@@ -9560,7 +10066,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="35">
         <v>161</v>
       </c>
@@ -9621,7 +10127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="35">
         <v>162</v>
       </c>
@@ -9682,7 +10188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="35">
         <v>163</v>
       </c>
@@ -9743,7 +10249,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="35">
         <v>164</v>
       </c>
@@ -9804,7 +10310,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="35">
         <v>165</v>
       </c>
@@ -9865,7 +10371,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="35">
         <v>166</v>
       </c>
@@ -9926,7 +10432,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="35">
         <v>167</v>
       </c>
@@ -9987,7 +10493,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="35">
         <v>168</v>
       </c>
@@ -10048,7 +10554,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="35">
         <v>169</v>
       </c>
@@ -10109,7 +10615,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="35">
         <v>175</v>
       </c>
@@ -10129,9 +10635,15 @@
       <c r="G131" s="37"/>
       <c r="H131" s="37"/>
       <c r="I131" s="42"/>
-      <c r="J131" s="38"/>
-      <c r="K131" s="38"/>
-      <c r="L131" s="38"/>
+      <c r="J131" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K131" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L131" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M131" s="38"/>
       <c r="N131" s="38"/>
       <c r="O131" s="38"/>
@@ -10146,7 +10658,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="35">
         <v>177</v>
       </c>
@@ -10166,9 +10678,15 @@
       <c r="G132" s="37"/>
       <c r="H132" s="37"/>
       <c r="I132" s="42"/>
-      <c r="J132" s="38"/>
-      <c r="K132" s="38"/>
-      <c r="L132" s="38"/>
+      <c r="J132" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K132" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L132" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M132" s="38"/>
       <c r="N132" s="38"/>
       <c r="O132" s="38"/>
@@ -10183,7 +10701,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="35">
         <v>178</v>
       </c>
@@ -10203,9 +10721,15 @@
       <c r="G133" s="37"/>
       <c r="H133" s="37"/>
       <c r="I133" s="42"/>
-      <c r="J133" s="38"/>
-      <c r="K133" s="38"/>
-      <c r="L133" s="38"/>
+      <c r="J133" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K133" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L133" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M133" s="38"/>
       <c r="N133" s="38"/>
       <c r="O133" s="38"/>
@@ -10220,7 +10744,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="35">
         <v>179</v>
       </c>
@@ -10240,9 +10764,15 @@
       <c r="G134" s="37"/>
       <c r="H134" s="37"/>
       <c r="I134" s="42"/>
-      <c r="J134" s="38"/>
-      <c r="K134" s="38"/>
-      <c r="L134" s="38"/>
+      <c r="J134" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K134" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L134" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M134" s="38"/>
       <c r="N134" s="38"/>
       <c r="O134" s="38"/>
@@ -10257,7 +10787,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="35">
         <v>180</v>
       </c>
@@ -10277,9 +10807,15 @@
       <c r="G135" s="37"/>
       <c r="H135" s="37"/>
       <c r="I135" s="42"/>
-      <c r="J135" s="38"/>
-      <c r="K135" s="38"/>
-      <c r="L135" s="38"/>
+      <c r="J135" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K135" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L135" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M135" s="38"/>
       <c r="N135" s="38"/>
       <c r="O135" s="38"/>
@@ -10294,7 +10830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="35">
         <v>181</v>
       </c>
@@ -10314,9 +10850,15 @@
       <c r="G136" s="37"/>
       <c r="H136" s="37"/>
       <c r="I136" s="42"/>
-      <c r="J136" s="38"/>
-      <c r="K136" s="38"/>
-      <c r="L136" s="38"/>
+      <c r="J136" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K136" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L136" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M136" s="38"/>
       <c r="N136" s="38"/>
       <c r="O136" s="38"/>
@@ -10331,7 +10873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="35">
         <v>182</v>
       </c>
@@ -10351,9 +10893,15 @@
       <c r="G137" s="37"/>
       <c r="H137" s="37"/>
       <c r="I137" s="42"/>
-      <c r="J137" s="38"/>
-      <c r="K137" s="38"/>
-      <c r="L137" s="38"/>
+      <c r="J137" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K137" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L137" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M137" s="38"/>
       <c r="N137" s="38"/>
       <c r="O137" s="38"/>
@@ -10368,7 +10916,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="35">
         <v>183</v>
       </c>
@@ -10388,9 +10936,15 @@
       <c r="G138" s="37"/>
       <c r="H138" s="37"/>
       <c r="I138" s="42"/>
-      <c r="J138" s="38"/>
-      <c r="K138" s="38"/>
-      <c r="L138" s="38"/>
+      <c r="J138" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K138" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L138" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M138" s="38"/>
       <c r="N138" s="38"/>
       <c r="O138" s="38"/>
@@ -10405,7 +10959,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="35">
         <v>184</v>
       </c>
@@ -10425,9 +10979,15 @@
       <c r="G139" s="37"/>
       <c r="H139" s="37"/>
       <c r="I139" s="42"/>
-      <c r="J139" s="38"/>
-      <c r="K139" s="38"/>
-      <c r="L139" s="38"/>
+      <c r="J139" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K139" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L139" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M139" s="38"/>
       <c r="N139" s="38"/>
       <c r="O139" s="38"/>
@@ -10442,7 +11002,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="35">
         <v>185</v>
       </c>
@@ -10462,9 +11022,15 @@
       <c r="G140" s="37"/>
       <c r="H140" s="37"/>
       <c r="I140" s="42"/>
-      <c r="J140" s="38"/>
-      <c r="K140" s="38"/>
-      <c r="L140" s="38"/>
+      <c r="J140" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K140" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L140" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M140" s="38"/>
       <c r="N140" s="38"/>
       <c r="O140" s="38"/>
@@ -10479,7 +11045,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="35">
         <v>186</v>
       </c>
@@ -10499,9 +11065,15 @@
       <c r="G141" s="37"/>
       <c r="H141" s="37"/>
       <c r="I141" s="42"/>
-      <c r="J141" s="38"/>
-      <c r="K141" s="38"/>
-      <c r="L141" s="38"/>
+      <c r="J141" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K141" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L141" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M141" s="38"/>
       <c r="N141" s="38"/>
       <c r="O141" s="38"/>
@@ -10516,7 +11088,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="35">
         <v>187</v>
       </c>
@@ -10536,9 +11108,15 @@
       <c r="G142" s="37"/>
       <c r="H142" s="37"/>
       <c r="I142" s="42"/>
-      <c r="J142" s="38"/>
-      <c r="K142" s="38"/>
-      <c r="L142" s="38"/>
+      <c r="J142" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K142" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L142" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
       <c r="O142" s="38"/>
@@ -10553,7 +11131,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="35">
         <v>188</v>
       </c>
@@ -10573,9 +11151,15 @@
       <c r="G143" s="37"/>
       <c r="H143" s="37"/>
       <c r="I143" s="42"/>
-      <c r="J143" s="38"/>
-      <c r="K143" s="38"/>
-      <c r="L143" s="38"/>
+      <c r="J143" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K143" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L143" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
       <c r="O143" s="38"/>
@@ -10590,7 +11174,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="35">
         <v>189</v>
       </c>
@@ -10610,9 +11194,15 @@
       <c r="G144" s="37"/>
       <c r="H144" s="37"/>
       <c r="I144" s="42"/>
-      <c r="J144" s="38"/>
-      <c r="K144" s="38"/>
-      <c r="L144" s="38"/>
+      <c r="J144" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K144" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L144" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
       <c r="O144" s="38"/>
@@ -10627,7 +11217,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="35">
         <v>190</v>
       </c>
@@ -10647,9 +11237,15 @@
       <c r="G145" s="37"/>
       <c r="H145" s="37"/>
       <c r="I145" s="42"/>
-      <c r="J145" s="38"/>
-      <c r="K145" s="38"/>
-      <c r="L145" s="38"/>
+      <c r="J145" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K145" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L145" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M145" s="38"/>
       <c r="N145" s="38"/>
       <c r="O145" s="38"/>
@@ -10664,7 +11260,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="35">
         <v>191</v>
       </c>
@@ -10684,9 +11280,15 @@
       <c r="G146" s="37"/>
       <c r="H146" s="37"/>
       <c r="I146" s="42"/>
-      <c r="J146" s="38"/>
-      <c r="K146" s="38"/>
-      <c r="L146" s="38"/>
+      <c r="J146" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K146" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L146" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M146" s="38"/>
       <c r="N146" s="38"/>
       <c r="O146" s="38"/>
@@ -10701,7 +11303,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="35">
         <v>376</v>
       </c>
@@ -10721,9 +11323,15 @@
       <c r="G147" s="37"/>
       <c r="H147" s="37"/>
       <c r="I147" s="42"/>
-      <c r="J147" s="38"/>
-      <c r="K147" s="38"/>
-      <c r="L147" s="38"/>
+      <c r="J147" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K147" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L147" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
       <c r="O147" s="38"/>
@@ -10738,7 +11346,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="35">
         <v>417</v>
       </c>
@@ -10785,7 +11393,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="35">
         <v>418</v>
       </c>
@@ -10832,7 +11440,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="35">
         <v>419</v>
       </c>
@@ -10852,9 +11460,15 @@
       <c r="G150" s="37"/>
       <c r="H150" s="37"/>
       <c r="I150" s="42"/>
-      <c r="J150" s="38"/>
-      <c r="K150" s="38"/>
-      <c r="L150" s="38"/>
+      <c r="J150" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K150" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L150" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M150" s="38"/>
       <c r="N150" s="38"/>
       <c r="O150" s="38"/>
@@ -10869,7 +11483,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="35">
         <v>423</v>
       </c>
@@ -10889,9 +11503,15 @@
       <c r="G151" s="37"/>
       <c r="H151" s="37"/>
       <c r="I151" s="42"/>
-      <c r="J151" s="38"/>
-      <c r="K151" s="38"/>
-      <c r="L151" s="38"/>
+      <c r="J151" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K151" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L151" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M151" s="38"/>
       <c r="N151" s="38"/>
       <c r="O151" s="38"/>
@@ -10906,7 +11526,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="35">
         <v>424</v>
       </c>
@@ -10926,9 +11546,15 @@
       <c r="G152" s="37"/>
       <c r="H152" s="37"/>
       <c r="I152" s="42"/>
-      <c r="J152" s="38"/>
-      <c r="K152" s="38"/>
-      <c r="L152" s="38"/>
+      <c r="J152" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K152" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L152" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M152" s="38"/>
       <c r="N152" s="38"/>
       <c r="O152" s="38"/>
@@ -10943,7 +11569,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="35">
         <v>425</v>
       </c>
@@ -10963,9 +11589,15 @@
       <c r="G153" s="37"/>
       <c r="H153" s="37"/>
       <c r="I153" s="42"/>
-      <c r="J153" s="38"/>
-      <c r="K153" s="38"/>
-      <c r="L153" s="38"/>
+      <c r="J153" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K153" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L153" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M153" s="38"/>
       <c r="N153" s="38"/>
       <c r="O153" s="38"/>
@@ -10980,7 +11612,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="35">
         <v>432</v>
       </c>
@@ -11000,9 +11632,15 @@
       <c r="G154" s="37"/>
       <c r="H154" s="37"/>
       <c r="I154" s="42"/>
-      <c r="J154" s="38"/>
-      <c r="K154" s="38"/>
-      <c r="L154" s="38"/>
+      <c r="J154" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K154" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L154" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M154" s="38"/>
       <c r="N154" s="38"/>
       <c r="O154" s="38"/>
@@ -11017,7 +11655,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="35">
         <v>433</v>
       </c>
@@ -11037,9 +11675,15 @@
       <c r="G155" s="37"/>
       <c r="H155" s="37"/>
       <c r="I155" s="42"/>
-      <c r="J155" s="38"/>
-      <c r="K155" s="38"/>
-      <c r="L155" s="38"/>
+      <c r="J155" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K155" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L155" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M155" s="38"/>
       <c r="N155" s="38"/>
       <c r="O155" s="38"/>
@@ -11054,7 +11698,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="35">
         <v>434</v>
       </c>
@@ -11074,9 +11718,15 @@
       <c r="G156" s="37"/>
       <c r="H156" s="37"/>
       <c r="I156" s="42"/>
-      <c r="J156" s="38"/>
-      <c r="K156" s="38"/>
-      <c r="L156" s="38"/>
+      <c r="J156" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K156" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L156" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M156" s="38"/>
       <c r="N156" s="38"/>
       <c r="O156" s="38"/>
@@ -11091,7 +11741,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="35">
         <v>435</v>
       </c>
@@ -11111,9 +11761,15 @@
       <c r="G157" s="37"/>
       <c r="H157" s="37"/>
       <c r="I157" s="42"/>
-      <c r="J157" s="38"/>
-      <c r="K157" s="38"/>
-      <c r="L157" s="38"/>
+      <c r="J157" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K157" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L157" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M157" s="38"/>
       <c r="N157" s="38"/>
       <c r="O157" s="38"/>
@@ -11128,7 +11784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="35">
         <v>437</v>
       </c>
@@ -11148,9 +11804,15 @@
       <c r="G158" s="37"/>
       <c r="H158" s="37"/>
       <c r="I158" s="42"/>
-      <c r="J158" s="38"/>
-      <c r="K158" s="38"/>
-      <c r="L158" s="38"/>
+      <c r="J158" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K158" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L158" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M158" s="38"/>
       <c r="N158" s="38"/>
       <c r="O158" s="38"/>
@@ -11165,7 +11827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="35">
         <v>438</v>
       </c>
@@ -11185,9 +11847,15 @@
       <c r="G159" s="37"/>
       <c r="H159" s="37"/>
       <c r="I159" s="42"/>
-      <c r="J159" s="38"/>
-      <c r="K159" s="38"/>
-      <c r="L159" s="38"/>
+      <c r="J159" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K159" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L159" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M159" s="38"/>
       <c r="N159" s="38"/>
       <c r="O159" s="38"/>
@@ -11202,7 +11870,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="35">
         <v>440</v>
       </c>
@@ -11222,9 +11890,15 @@
       <c r="G160" s="37"/>
       <c r="H160" s="37"/>
       <c r="I160" s="42"/>
-      <c r="J160" s="38"/>
-      <c r="K160" s="38"/>
-      <c r="L160" s="38"/>
+      <c r="J160" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K160" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L160" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M160" s="38"/>
       <c r="N160" s="38"/>
       <c r="O160" s="38"/>
@@ -11239,7 +11913,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="35">
         <v>441</v>
       </c>
@@ -11259,9 +11933,15 @@
       <c r="G161" s="37"/>
       <c r="H161" s="37"/>
       <c r="I161" s="42"/>
-      <c r="J161" s="38"/>
-      <c r="K161" s="38"/>
-      <c r="L161" s="38"/>
+      <c r="J161" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K161" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L161" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M161" s="38"/>
       <c r="N161" s="38"/>
       <c r="O161" s="38"/>
@@ -11276,7 +11956,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="35">
         <v>442</v>
       </c>
@@ -11296,9 +11976,15 @@
       <c r="G162" s="37"/>
       <c r="H162" s="37"/>
       <c r="I162" s="42"/>
-      <c r="J162" s="38"/>
-      <c r="K162" s="38"/>
-      <c r="L162" s="38"/>
+      <c r="J162" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K162" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L162" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M162" s="38"/>
       <c r="N162" s="38"/>
       <c r="O162" s="38"/>
@@ -11313,7 +11999,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="35">
         <v>443</v>
       </c>
@@ -11333,9 +12019,15 @@
       <c r="G163" s="37"/>
       <c r="H163" s="37"/>
       <c r="I163" s="42"/>
-      <c r="J163" s="38"/>
-      <c r="K163" s="38"/>
-      <c r="L163" s="38"/>
+      <c r="J163" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K163" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L163" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M163" s="38"/>
       <c r="N163" s="38"/>
       <c r="O163" s="38"/>
@@ -11350,7 +12042,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="35">
         <v>448</v>
       </c>
@@ -11397,7 +12089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="35">
         <v>449</v>
       </c>
@@ -11444,7 +12136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="35">
         <v>450</v>
       </c>
@@ -11491,7 +12183,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="35">
         <v>451</v>
       </c>
@@ -11511,9 +12203,15 @@
       <c r="G167" s="37"/>
       <c r="H167" s="37"/>
       <c r="I167" s="42"/>
-      <c r="J167" s="38"/>
-      <c r="K167" s="38"/>
-      <c r="L167" s="38"/>
+      <c r="J167" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K167" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L167" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M167" s="38"/>
       <c r="N167" s="38"/>
       <c r="O167" s="38"/>
@@ -11528,7 +12226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="35">
         <v>452</v>
       </c>
@@ -11575,7 +12273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="35">
         <v>454</v>
       </c>
@@ -11622,7 +12320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="35">
         <v>455</v>
       </c>
@@ -11669,7 +12367,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="35">
         <v>456</v>
       </c>
@@ -11716,7 +12414,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="35">
         <v>457</v>
       </c>
@@ -11763,7 +12461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="35">
         <v>458</v>
       </c>
@@ -11810,7 +12508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="35">
         <v>459</v>
       </c>
@@ -11857,7 +12555,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="35">
         <v>460</v>
       </c>
@@ -11904,7 +12602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="35">
         <v>461</v>
       </c>
@@ -11965,7 +12663,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="35">
         <v>462</v>
       </c>
@@ -12026,7 +12724,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="35">
         <v>463</v>
       </c>
@@ -12046,9 +12744,15 @@
       <c r="G178" s="35"/>
       <c r="H178" s="35"/>
       <c r="I178" s="35"/>
-      <c r="J178" s="38"/>
-      <c r="K178" s="38"/>
-      <c r="L178" s="35"/>
+      <c r="J178" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K178" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L178" s="35" t="s">
+        <v>646</v>
+      </c>
       <c r="M178" s="38"/>
       <c r="N178" s="38"/>
       <c r="O178" s="35"/>
@@ -12063,7 +12767,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="35">
         <v>464</v>
       </c>
@@ -12083,9 +12787,15 @@
       <c r="G179" s="35"/>
       <c r="H179" s="35"/>
       <c r="I179" s="35"/>
-      <c r="J179" s="38"/>
-      <c r="K179" s="38"/>
-      <c r="L179" s="35"/>
+      <c r="J179" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K179" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L179" s="35" t="s">
+        <v>646</v>
+      </c>
       <c r="M179" s="38"/>
       <c r="N179" s="38"/>
       <c r="O179" s="35"/>
@@ -12100,7 +12810,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="35">
         <v>465</v>
       </c>
@@ -12120,9 +12830,15 @@
       <c r="G180" s="35"/>
       <c r="H180" s="35"/>
       <c r="I180" s="35"/>
-      <c r="J180" s="38"/>
-      <c r="K180" s="38"/>
-      <c r="L180" s="35"/>
+      <c r="J180" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K180" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L180" s="35" t="s">
+        <v>646</v>
+      </c>
       <c r="M180" s="38"/>
       <c r="N180" s="38"/>
       <c r="O180" s="35"/>
@@ -12137,7 +12853,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="35">
         <v>466</v>
       </c>
@@ -12157,9 +12873,15 @@
       <c r="G181" s="35"/>
       <c r="H181" s="35"/>
       <c r="I181" s="35"/>
-      <c r="J181" s="38"/>
-      <c r="K181" s="38"/>
-      <c r="L181" s="35"/>
+      <c r="J181" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K181" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L181" s="35" t="s">
+        <v>646</v>
+      </c>
       <c r="M181" s="38"/>
       <c r="N181" s="38"/>
       <c r="O181" s="35"/>
@@ -12174,7 +12896,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="35">
         <v>467</v>
       </c>
@@ -12194,9 +12916,15 @@
       <c r="G182" s="35"/>
       <c r="H182" s="35"/>
       <c r="I182" s="35"/>
-      <c r="J182" s="38"/>
-      <c r="K182" s="38"/>
-      <c r="L182" s="35"/>
+      <c r="J182" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K182" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L182" s="35" t="s">
+        <v>646</v>
+      </c>
       <c r="M182" s="38"/>
       <c r="N182" s="38"/>
       <c r="O182" s="35"/>
@@ -12211,7 +12939,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="35">
         <v>468</v>
       </c>
@@ -12272,7 +13000,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="35">
         <v>469</v>
       </c>
@@ -12333,7 +13061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="35">
         <v>470</v>
       </c>
@@ -12394,7 +13122,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="35">
         <v>471</v>
       </c>
@@ -12441,7 +13169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="35">
         <v>472</v>
       </c>
@@ -12488,7 +13216,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="35">
         <v>473</v>
       </c>
@@ -12508,9 +13236,15 @@
       <c r="G188" s="37"/>
       <c r="H188" s="37"/>
       <c r="I188" s="42"/>
-      <c r="J188" s="38"/>
-      <c r="K188" s="38"/>
-      <c r="L188" s="38"/>
+      <c r="J188" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K188" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L188" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M188" s="38"/>
       <c r="N188" s="38"/>
       <c r="O188" s="38"/>
@@ -12525,7 +13259,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="35">
         <v>474</v>
       </c>
@@ -12586,7 +13320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="35">
         <v>475</v>
       </c>
@@ -12669,7 +13403,7 @@
       <c r="G191" s="37" t="s">
         <v>643</v>
       </c>
-      <c r="H191" s="61" t="s">
+      <c r="H191" s="49" t="s">
         <v>644</v>
       </c>
       <c r="I191" s="42" t="s">
@@ -12694,7 +13428,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="35">
         <v>477</v>
       </c>
@@ -12714,9 +13448,15 @@
       <c r="G192" s="37"/>
       <c r="H192" s="37"/>
       <c r="I192" s="42"/>
-      <c r="J192" s="38"/>
-      <c r="K192" s="38"/>
-      <c r="L192" s="38"/>
+      <c r="J192" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K192" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L192" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M192" s="38"/>
       <c r="N192" s="38"/>
       <c r="O192" s="38"/>
@@ -12731,7 +13471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="35">
         <v>478</v>
       </c>
@@ -12751,9 +13491,15 @@
       <c r="G193" s="37"/>
       <c r="H193" s="37"/>
       <c r="I193" s="42"/>
-      <c r="J193" s="38"/>
-      <c r="K193" s="38"/>
-      <c r="L193" s="38"/>
+      <c r="J193" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K193" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L193" s="38" t="s">
+        <v>646</v>
+      </c>
       <c r="M193" s="38"/>
       <c r="N193" s="38"/>
       <c r="O193" s="38"/>
@@ -16725,13 +17471,7 @@
     <row r="749" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="750" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A9:W193" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="476"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:W193" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -16752,7 +17492,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P191:R193 M191:N193 J10:J13 M10:N13 P10:R13 M16:N21 P16:R21 J16:J21 P24:R29 J24:J29 M24:N29 J32:J52 M32:N52 P32:R52 Q172:R175 P174:P175 P167:Q167 R167:R168 J150:J163 P188:R188 J188 M188:N188 M69:N115 J69:J115 P69:R115 P150:R164 J191:J193 M150:N163 J178:J182 P178:R182 M178:N182 J131:J147 M131:N147 P131:R148 J167 M167:N167</xm:sqref>
+          <xm:sqref>P191:R193 M191:N193 J10:J13 M10:N13 P10:R13 M16:N21 P16:R21 J69:J115 P24:R29 J24:J29 M24:N29 M167:N167 M32:N52 P32:R52 Q172:R175 P174:P175 P167:Q167 R167:R168 J150:J163 P188:R188 J188 M188:N188 M69:N115 J32:J52 P69:R115 P150:R164 J131:J147 M150:N163 J178:J182 P178:R182 M178:N182 J16:J21 M131:N147 P131:R148 J167 J191:J193</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
@@ -16764,7 +17504,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K13 K16:K21 K24:K29 K32:K52 K167 K150:K163 K188 K69:K115 K191:K193 K178:K182 K131:K147</xm:sqref>
+          <xm:sqref>K10:K13 K69:K115 K24:K29 K150:K163 K167 K188 K32:K52 K131:K147 K178:K182 K16:K21 K191:K193</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16833,7 +17573,7 @@
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19015,12 +19755,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19168,15 +19905,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19200,18 +19949,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/S1#111#JOINSOFTSRLXX/Joinsoft_Srl/Gestione_Stabilimenti_Termali/Ver_6.31/report-checklist.xlsx
+++ b/GATEWAY/S1#111#JOINSOFTSRLXX/Joinsoft_Srl/Gestione_Stabilimenti_Termali/Ver_6.31/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66315AF-30B9-46CA-A344-8FA5D6038767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A43A3A-CC96-4763-8320-2760D6C81B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="647">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4446,10 +4446,10 @@
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="N28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L194" sqref="L194"/>
+      <selection pane="bottomRight" activeCell="R204" sqref="R204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5568,13 +5568,25 @@
       <c r="L27" s="38" t="s">
         <v>646</v>
       </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
+      <c r="M27" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N27" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
+      <c r="P27" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q27" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="R27" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S27" s="38" t="s">
+        <v>450</v>
+      </c>
       <c r="T27" s="38"/>
       <c r="U27" s="39" t="s">
         <v>64</v>
@@ -5613,13 +5625,25 @@
       <c r="L28" s="38" t="s">
         <v>646</v>
       </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+      <c r="M28" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N28" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
+      <c r="P28" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q28" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="R28" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S28" s="38" t="s">
+        <v>450</v>
+      </c>
       <c r="T28" s="38"/>
       <c r="U28" s="39" t="s">
         <v>64</v>
@@ -5658,13 +5682,25 @@
       <c r="L29" s="38" t="s">
         <v>646</v>
       </c>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="M29" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N29" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
+      <c r="P29" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q29" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="R29" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S29" s="38" t="s">
+        <v>450</v>
+      </c>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
         <v>64</v>
@@ -5823,13 +5859,25 @@
       <c r="L32" s="38" t="s">
         <v>646</v>
       </c>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
+      <c r="M32" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N32" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
+      <c r="P32" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q32" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="R32" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S32" s="38" t="s">
+        <v>450</v>
+      </c>
       <c r="T32" s="38"/>
       <c r="U32" s="39" t="s">
         <v>64</v>
@@ -5868,13 +5916,25 @@
       <c r="L33" s="38" t="s">
         <v>646</v>
       </c>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
+      <c r="M33" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N33" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
+      <c r="P33" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q33" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="R33" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S33" s="38" t="s">
+        <v>450</v>
+      </c>
       <c r="T33" s="38"/>
       <c r="U33" s="39" t="s">
         <v>64</v>
@@ -5913,13 +5973,25 @@
       <c r="L34" s="38" t="s">
         <v>646</v>
       </c>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
+      <c r="M34" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N34" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
+      <c r="P34" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q34" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="R34" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S34" s="38" t="s">
+        <v>450</v>
+      </c>
       <c r="T34" s="38"/>
       <c r="U34" s="39" t="s">
         <v>64</v>
@@ -11598,13 +11670,25 @@
       <c r="L153" s="38" t="s">
         <v>646</v>
       </c>
-      <c r="M153" s="38"/>
-      <c r="N153" s="38"/>
+      <c r="M153" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N153" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="O153" s="38"/>
-      <c r="P153" s="38"/>
-      <c r="Q153" s="38"/>
-      <c r="R153" s="38"/>
-      <c r="S153" s="38"/>
+      <c r="P153" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q153" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="R153" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S153" s="38" t="s">
+        <v>450</v>
+      </c>
       <c r="T153" s="38"/>
       <c r="U153" s="39"/>
       <c r="V153" s="40"/>
@@ -19755,9 +19839,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19905,27 +19992,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19949,9 +20024,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/S1#111#JOINSOFTSRLXX/Joinsoft_Srl/Gestione_Stabilimenti_Termali/Ver_6.31/report-checklist.xlsx
+++ b/GATEWAY/S1#111#JOINSOFTSRLXX/Joinsoft_Srl/Gestione_Stabilimenti_Termali/Ver_6.31/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A43A3A-CC96-4763-8320-2760D6C81B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC29AF3-17ED-4108-9BA6-47A7212B288E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="615">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2228,102 +2228,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.116f18baf52e6f1c0a7679d186e34adb86c2713257aa6f9d2a86c3b976e0437c.cbc5bf20fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-12-06T08:14:18.294Z</t>
-  </si>
-  <si>
-    <t>8856674852fa7aff1989f6dccd77b758</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.590d487072a2480668b91b098a6f4c3d58642da059cf42fd8ff7326220d50fba.0c9fce6f7d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-12-06T08:14:19.390Z</t>
-  </si>
-  <si>
-    <t>8a43058945e24ec19504d234f98c5814</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.5237abb4b0d585ca19ce0c314be6bd0d7f4466b3b344d41527102ab6d4a478a9.edcde07f1d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"</t>
-  </si>
-  <si>
-    <t>2025-12-06T08:15:15.516Z</t>
-  </si>
-  <si>
-    <t>18c0439d6f88ca6850d3d3e2d4c77cae</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8008cda2390f5467f80fe14edef24bb5b140837c188447ff8ae3a583873fc88e.875219ef6d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-12-06T08:15:14.198Z</t>
-  </si>
-  <si>
-    <t>d53c28c8a1535d235c93b51d68c66b60</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2ccf7a0842abed274e67aff14024941783ea79852948e827dde14930b27bcfbb.e89c4f22dc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-12-06T08:15:21.774Z</t>
-  </si>
-  <si>
-    <t>1bc336a1b2a571903b6d310199d99667</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.6638c40848efda78ed8bf7e1e6ed7f09a556c98ef5f5005d371635dcbf0c0828.92b1029ac4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-12-06T08:15:19.723Z</t>
-  </si>
-  <si>
-    <t>15b46420b63d81188369c917d75d0876</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.c81d0d27d744686e7af9dbb7cb0420e3ac8cd35e191cabfa0e594f97c7a5b23c.666b2dde9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-12-06T08:15:12.150Z</t>
-  </si>
-  <si>
-    <t>2692988fbf057437c4e47389707e0e29</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2d7083d104fe94befcc0d695f6a95f675ae3af1312cf1271e78394728e8db555.07331ae418^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-12-06T08:15:13.094Z</t>
-  </si>
-  <si>
-    <t>56f25be1487ceae491b6eac561bf1fac</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a0191b9deca3a8f6f9121073262e457a9b627a0b6cfd1d7c02e44b4908e595e1.9573221ae1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-12-06T08:14:20.580Z</t>
-  </si>
-  <si>
-    <t>8aa320edf984b553ae323e0d21c9ed92</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.08d3dbca42e78981bc761aa8c4218adac7b198c101d04bf2f567e7068f903d2e.ff3793a7a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-12-06T08:14:21.687Z</t>
-  </si>
-  <si>
-    <t>d6ae0727a6779a03d94cbc37918ae247</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2eaf25413393896e589830b387794eaa16a04834f6474dd616fbe2beff60a5d6.3ed9c5e569^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Messaggio errore: [ERRORE-5| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'R' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']</t>
-  </si>
-  <si>
-    <t>Viene segnalato l'errore, l'operatore corregge il dato e reinvia</t>
   </si>
   <si>
     <t>JOINSOFT SRL</t>
@@ -4443,13 +4347,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="N28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="R204" sqref="R204"/>
+      <selection pane="bottomRight" activeCell="R185" sqref="R185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4496,7 +4401,7 @@
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="54" t="s">
-        <v>639</v>
+        <v>607</v>
       </c>
       <c r="D2" s="53"/>
       <c r="F2" s="6"/>
@@ -4524,7 +4429,7 @@
       </c>
       <c r="B3" s="56"/>
       <c r="C3" s="61" t="s">
-        <v>640</v>
+        <v>608</v>
       </c>
       <c r="D3" s="53"/>
       <c r="F3" s="6"/>
@@ -4550,7 +4455,7 @@
       <c r="A4" s="57"/>
       <c r="B4" s="58"/>
       <c r="C4" s="61" t="s">
-        <v>641</v>
+        <v>609</v>
       </c>
       <c r="D4" s="53"/>
       <c r="E4" s="4"/>
@@ -4577,7 +4482,7 @@
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="61" t="s">
-        <v>642</v>
+        <v>610</v>
       </c>
       <c r="D5" s="53"/>
       <c r="F5" s="6"/>
@@ -4736,7 +4641,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>4</v>
       </c>
@@ -4763,7 +4668,7 @@
         <v>235</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
@@ -4779,7 +4684,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35">
         <v>28</v>
       </c>
@@ -4806,7 +4711,7 @@
         <v>235</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
@@ -4822,7 +4727,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35">
         <v>29</v>
       </c>
@@ -4849,7 +4754,7 @@
         <v>235</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
@@ -4865,7 +4770,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35">
         <v>30</v>
       </c>
@@ -4892,7 +4797,7 @@
         <v>235</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
@@ -4908,7 +4813,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35">
         <v>31</v>
       </c>
@@ -4969,7 +4874,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35">
         <v>32</v>
       </c>
@@ -5030,7 +4935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35">
         <v>33</v>
       </c>
@@ -5057,7 +4962,7 @@
         <v>235</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -5073,7 +4978,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35">
         <v>34</v>
       </c>
@@ -5100,7 +5005,7 @@
         <v>235</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
@@ -5116,7 +5021,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35">
         <v>35</v>
       </c>
@@ -5143,7 +5048,7 @@
         <v>235</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
@@ -5159,7 +5064,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35">
         <v>36</v>
       </c>
@@ -5186,7 +5091,7 @@
         <v>235</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
@@ -5202,7 +5107,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35">
         <v>37</v>
       </c>
@@ -5229,7 +5134,7 @@
         <v>235</v>
       </c>
       <c r="L20" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M20" s="38"/>
       <c r="N20" s="38"/>
@@ -5245,7 +5150,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="35">
         <v>38</v>
       </c>
@@ -5272,7 +5177,7 @@
         <v>235</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
@@ -5288,7 +5193,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35">
         <v>39</v>
       </c>
@@ -5349,7 +5254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="35">
         <v>40</v>
       </c>
@@ -5410,7 +5315,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="35">
         <v>41</v>
       </c>
@@ -5437,7 +5342,7 @@
         <v>235</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
@@ -5453,7 +5358,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="35">
         <v>42</v>
       </c>
@@ -5480,7 +5385,7 @@
         <v>235</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
@@ -5496,7 +5401,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="35">
         <v>43</v>
       </c>
@@ -5523,7 +5428,7 @@
         <v>235</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
@@ -5539,7 +5444,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35">
         <v>44</v>
       </c>
@@ -5566,7 +5471,7 @@
         <v>235</v>
       </c>
       <c r="L27" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M27" s="38" t="s">
         <v>64</v>
@@ -5596,7 +5501,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35">
         <v>45</v>
       </c>
@@ -5623,7 +5528,7 @@
         <v>235</v>
       </c>
       <c r="L28" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M28" s="38" t="s">
         <v>64</v>
@@ -5653,7 +5558,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="35">
         <v>46</v>
       </c>
@@ -5680,7 +5585,7 @@
         <v>235</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M29" s="38" t="s">
         <v>64</v>
@@ -5710,7 +5615,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="35">
         <v>47</v>
       </c>
@@ -5767,7 +5672,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="35">
         <v>48</v>
       </c>
@@ -5830,7 +5735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="35">
         <v>49</v>
       </c>
@@ -5857,7 +5762,7 @@
         <v>235</v>
       </c>
       <c r="L32" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M32" s="38" t="s">
         <v>64</v>
@@ -5887,7 +5792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="35">
         <v>50</v>
       </c>
@@ -5914,7 +5819,7 @@
         <v>235</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M33" s="38" t="s">
         <v>64</v>
@@ -5944,7 +5849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="35">
         <v>51</v>
       </c>
@@ -5971,7 +5876,7 @@
         <v>235</v>
       </c>
       <c r="L34" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M34" s="38" t="s">
         <v>64</v>
@@ -6001,7 +5906,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="35">
         <v>53</v>
       </c>
@@ -6028,7 +5933,7 @@
         <v>235</v>
       </c>
       <c r="L35" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
@@ -6044,7 +5949,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="35">
         <v>55</v>
       </c>
@@ -6071,7 +5976,7 @@
         <v>235</v>
       </c>
       <c r="L36" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
@@ -6087,7 +5992,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="35">
         <v>56</v>
       </c>
@@ -6114,7 +6019,7 @@
         <v>235</v>
       </c>
       <c r="L37" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M37" s="38"/>
       <c r="N37" s="38"/>
@@ -6130,7 +6035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="35">
         <v>57</v>
       </c>
@@ -6157,7 +6062,7 @@
         <v>235</v>
       </c>
       <c r="L38" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M38" s="38"/>
       <c r="N38" s="38"/>
@@ -6173,7 +6078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="35">
         <v>59</v>
       </c>
@@ -6200,7 +6105,7 @@
         <v>235</v>
       </c>
       <c r="L39" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
@@ -6216,7 +6121,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="35">
         <v>60</v>
       </c>
@@ -6243,7 +6148,7 @@
         <v>235</v>
       </c>
       <c r="L40" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
@@ -6259,7 +6164,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="35">
         <v>61</v>
       </c>
@@ -6286,7 +6191,7 @@
         <v>235</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
@@ -6302,7 +6207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="35">
         <v>62</v>
       </c>
@@ -6329,7 +6234,7 @@
         <v>235</v>
       </c>
       <c r="L42" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
@@ -6345,7 +6250,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="35">
         <v>64</v>
       </c>
@@ -6372,7 +6277,7 @@
         <v>235</v>
       </c>
       <c r="L43" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M43" s="38"/>
       <c r="N43" s="38"/>
@@ -6388,7 +6293,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="35">
         <v>66</v>
       </c>
@@ -6415,7 +6320,7 @@
         <v>235</v>
       </c>
       <c r="L44" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M44" s="38"/>
       <c r="N44" s="38"/>
@@ -6431,7 +6336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="35">
         <v>67</v>
       </c>
@@ -6458,7 +6363,7 @@
         <v>235</v>
       </c>
       <c r="L45" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
@@ -6474,7 +6379,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="35">
         <v>68</v>
       </c>
@@ -6501,7 +6406,7 @@
         <v>235</v>
       </c>
       <c r="L46" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M46" s="38"/>
       <c r="N46" s="38"/>
@@ -6517,7 +6422,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="35">
         <v>69</v>
       </c>
@@ -6544,7 +6449,7 @@
         <v>235</v>
       </c>
       <c r="L47" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
@@ -6560,7 +6465,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="35">
         <v>70</v>
       </c>
@@ -6587,7 +6492,7 @@
         <v>235</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M48" s="38"/>
       <c r="N48" s="38"/>
@@ -6603,7 +6508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="35">
         <v>71</v>
       </c>
@@ -6630,7 +6535,7 @@
         <v>235</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M49" s="38"/>
       <c r="N49" s="38"/>
@@ -6646,7 +6551,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="35">
         <v>72</v>
       </c>
@@ -6673,7 +6578,7 @@
         <v>235</v>
       </c>
       <c r="L50" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M50" s="38"/>
       <c r="N50" s="38"/>
@@ -6689,7 +6594,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="35">
         <v>73</v>
       </c>
@@ -6716,7 +6621,7 @@
         <v>235</v>
       </c>
       <c r="L51" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M51" s="38"/>
       <c r="N51" s="38"/>
@@ -6732,7 +6637,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="35">
         <v>74</v>
       </c>
@@ -6759,7 +6664,7 @@
         <v>235</v>
       </c>
       <c r="L52" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M52" s="38"/>
       <c r="N52" s="38"/>
@@ -6775,7 +6680,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="35">
         <v>76</v>
       </c>
@@ -6836,7 +6741,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="35">
         <v>78</v>
       </c>
@@ -6897,7 +6802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="35">
         <v>79</v>
       </c>
@@ -6958,7 +6863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="35">
         <v>80</v>
       </c>
@@ -7019,7 +6924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="35">
         <v>81</v>
       </c>
@@ -7080,7 +6985,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="35">
         <v>83</v>
       </c>
@@ -7141,7 +7046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="35">
         <v>84</v>
       </c>
@@ -7202,7 +7107,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="35">
         <v>85</v>
       </c>
@@ -7263,7 +7168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="35">
         <v>86</v>
       </c>
@@ -7324,7 +7229,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="35">
         <v>87</v>
       </c>
@@ -7385,7 +7290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="35">
         <v>88</v>
       </c>
@@ -7446,7 +7351,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="35">
         <v>89</v>
       </c>
@@ -7507,7 +7412,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="35">
         <v>90</v>
       </c>
@@ -7568,7 +7473,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="35">
         <v>91</v>
       </c>
@@ -7629,7 +7534,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="35">
         <v>92</v>
       </c>
@@ -7690,7 +7595,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="35">
         <v>93</v>
       </c>
@@ -7751,7 +7656,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="35">
         <v>95</v>
       </c>
@@ -7778,7 +7683,7 @@
         <v>235</v>
       </c>
       <c r="L69" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M69" s="38"/>
       <c r="N69" s="38"/>
@@ -7794,7 +7699,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="35">
         <v>97</v>
       </c>
@@ -7821,7 +7726,7 @@
         <v>235</v>
       </c>
       <c r="L70" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M70" s="38"/>
       <c r="N70" s="38"/>
@@ -7837,7 +7742,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="35">
         <v>98</v>
       </c>
@@ -7864,7 +7769,7 @@
         <v>235</v>
       </c>
       <c r="L71" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M71" s="38"/>
       <c r="N71" s="38"/>
@@ -7880,7 +7785,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="35">
         <v>99</v>
       </c>
@@ -7907,7 +7812,7 @@
         <v>235</v>
       </c>
       <c r="L72" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M72" s="38"/>
       <c r="N72" s="38"/>
@@ -7923,7 +7828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="35">
         <v>100</v>
       </c>
@@ -7950,7 +7855,7 @@
         <v>235</v>
       </c>
       <c r="L73" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M73" s="38"/>
       <c r="N73" s="38"/>
@@ -7966,7 +7871,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="35">
         <v>101</v>
       </c>
@@ -7993,7 +7898,7 @@
         <v>235</v>
       </c>
       <c r="L74" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M74" s="38"/>
       <c r="N74" s="38"/>
@@ -8009,7 +7914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="35">
         <v>102</v>
       </c>
@@ -8036,7 +7941,7 @@
         <v>235</v>
       </c>
       <c r="L75" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M75" s="38"/>
       <c r="N75" s="38"/>
@@ -8052,7 +7957,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="35">
         <v>103</v>
       </c>
@@ -8079,7 +7984,7 @@
         <v>235</v>
       </c>
       <c r="L76" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M76" s="38"/>
       <c r="N76" s="38"/>
@@ -8095,7 +8000,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="35">
         <v>104</v>
       </c>
@@ -8122,7 +8027,7 @@
         <v>235</v>
       </c>
       <c r="L77" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M77" s="38"/>
       <c r="N77" s="38"/>
@@ -8138,7 +8043,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="35">
         <v>105</v>
       </c>
@@ -8165,7 +8070,7 @@
         <v>235</v>
       </c>
       <c r="L78" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M78" s="38"/>
       <c r="N78" s="38"/>
@@ -8181,7 +8086,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="35">
         <v>106</v>
       </c>
@@ -8208,7 +8113,7 @@
         <v>235</v>
       </c>
       <c r="L79" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M79" s="38"/>
       <c r="N79" s="38"/>
@@ -8224,7 +8129,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="35">
         <v>108</v>
       </c>
@@ -8251,7 +8156,7 @@
         <v>235</v>
       </c>
       <c r="L80" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M80" s="38"/>
       <c r="N80" s="38"/>
@@ -8267,7 +8172,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="35">
         <v>110</v>
       </c>
@@ -8294,7 +8199,7 @@
         <v>235</v>
       </c>
       <c r="L81" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M81" s="38"/>
       <c r="N81" s="38"/>
@@ -8310,7 +8215,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="35">
         <v>111</v>
       </c>
@@ -8337,7 +8242,7 @@
         <v>235</v>
       </c>
       <c r="L82" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M82" s="38"/>
       <c r="N82" s="38"/>
@@ -8353,7 +8258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="35">
         <v>112</v>
       </c>
@@ -8380,7 +8285,7 @@
         <v>235</v>
       </c>
       <c r="L83" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M83" s="38"/>
       <c r="N83" s="38"/>
@@ -8396,7 +8301,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="35">
         <v>113</v>
       </c>
@@ -8423,7 +8328,7 @@
         <v>235</v>
       </c>
       <c r="L84" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M84" s="38"/>
       <c r="N84" s="38"/>
@@ -8439,7 +8344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="35">
         <v>114</v>
       </c>
@@ -8466,7 +8371,7 @@
         <v>235</v>
       </c>
       <c r="L85" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M85" s="38"/>
       <c r="N85" s="38"/>
@@ -8482,7 +8387,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="35">
         <v>115</v>
       </c>
@@ -8509,7 +8414,7 @@
         <v>235</v>
       </c>
       <c r="L86" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M86" s="38"/>
       <c r="N86" s="38"/>
@@ -8525,7 +8430,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="35">
         <v>116</v>
       </c>
@@ -8552,7 +8457,7 @@
         <v>235</v>
       </c>
       <c r="L87" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M87" s="38"/>
       <c r="N87" s="38"/>
@@ -8568,7 +8473,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="35">
         <v>117</v>
       </c>
@@ -8595,7 +8500,7 @@
         <v>235</v>
       </c>
       <c r="L88" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M88" s="38"/>
       <c r="N88" s="38"/>
@@ -8611,7 +8516,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="35">
         <v>118</v>
       </c>
@@ -8638,7 +8543,7 @@
         <v>235</v>
       </c>
       <c r="L89" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M89" s="38"/>
       <c r="N89" s="38"/>
@@ -8654,7 +8559,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="35">
         <v>119</v>
       </c>
@@ -8681,7 +8586,7 @@
         <v>235</v>
       </c>
       <c r="L90" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M90" s="38"/>
       <c r="N90" s="38"/>
@@ -8697,7 +8602,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="35">
         <v>120</v>
       </c>
@@ -8724,7 +8629,7 @@
         <v>235</v>
       </c>
       <c r="L91" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M91" s="38"/>
       <c r="N91" s="38"/>
@@ -8740,7 +8645,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="35">
         <v>121</v>
       </c>
@@ -8767,7 +8672,7 @@
         <v>235</v>
       </c>
       <c r="L92" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M92" s="38"/>
       <c r="N92" s="38"/>
@@ -8783,7 +8688,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="35">
         <v>123</v>
       </c>
@@ -8810,7 +8715,7 @@
         <v>235</v>
       </c>
       <c r="L93" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M93" s="38"/>
       <c r="N93" s="38"/>
@@ -8826,7 +8731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="35">
         <v>125</v>
       </c>
@@ -8853,7 +8758,7 @@
         <v>235</v>
       </c>
       <c r="L94" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M94" s="38"/>
       <c r="N94" s="38"/>
@@ -8869,7 +8774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="35">
         <v>126</v>
       </c>
@@ -8896,7 +8801,7 @@
         <v>235</v>
       </c>
       <c r="L95" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M95" s="38"/>
       <c r="N95" s="38"/>
@@ -8912,7 +8817,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="35">
         <v>127</v>
       </c>
@@ -8939,7 +8844,7 @@
         <v>235</v>
       </c>
       <c r="L96" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M96" s="38"/>
       <c r="N96" s="38"/>
@@ -8955,7 +8860,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="35">
         <v>128</v>
       </c>
@@ -8982,7 +8887,7 @@
         <v>235</v>
       </c>
       <c r="L97" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M97" s="38"/>
       <c r="N97" s="38"/>
@@ -8998,7 +8903,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="35">
         <v>129</v>
       </c>
@@ -9025,7 +8930,7 @@
         <v>235</v>
       </c>
       <c r="L98" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M98" s="38"/>
       <c r="N98" s="38"/>
@@ -9041,7 +8946,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="35">
         <v>130</v>
       </c>
@@ -9068,7 +8973,7 @@
         <v>235</v>
       </c>
       <c r="L99" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M99" s="38"/>
       <c r="N99" s="38"/>
@@ -9084,7 +8989,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="35">
         <v>131</v>
       </c>
@@ -9111,7 +9016,7 @@
         <v>235</v>
       </c>
       <c r="L100" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M100" s="38"/>
       <c r="N100" s="38"/>
@@ -9127,7 +9032,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="35">
         <v>132</v>
       </c>
@@ -9154,7 +9059,7 @@
         <v>235</v>
       </c>
       <c r="L101" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M101" s="38"/>
       <c r="N101" s="38"/>
@@ -9170,7 +9075,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="35">
         <v>133</v>
       </c>
@@ -9197,7 +9102,7 @@
         <v>235</v>
       </c>
       <c r="L102" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M102" s="38"/>
       <c r="N102" s="38"/>
@@ -9213,7 +9118,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="35">
         <v>134</v>
       </c>
@@ -9240,7 +9145,7 @@
         <v>235</v>
       </c>
       <c r="L103" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M103" s="38"/>
       <c r="N103" s="38"/>
@@ -9256,7 +9161,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="35">
         <v>135</v>
       </c>
@@ -9283,7 +9188,7 @@
         <v>235</v>
       </c>
       <c r="L104" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M104" s="38"/>
       <c r="N104" s="38"/>
@@ -9299,7 +9204,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="35">
         <v>136</v>
       </c>
@@ -9326,7 +9231,7 @@
         <v>235</v>
       </c>
       <c r="L105" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M105" s="38"/>
       <c r="N105" s="38"/>
@@ -9342,7 +9247,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="35">
         <v>137</v>
       </c>
@@ -9369,7 +9274,7 @@
         <v>235</v>
       </c>
       <c r="L106" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M106" s="38"/>
       <c r="N106" s="38"/>
@@ -9385,7 +9290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="35">
         <v>138</v>
       </c>
@@ -9412,7 +9317,7 @@
         <v>235</v>
       </c>
       <c r="L107" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M107" s="38"/>
       <c r="N107" s="38"/>
@@ -9428,7 +9333,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="35">
         <v>139</v>
       </c>
@@ -9455,7 +9360,7 @@
         <v>235</v>
       </c>
       <c r="L108" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M108" s="38"/>
       <c r="N108" s="38"/>
@@ -9471,7 +9376,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="35">
         <v>140</v>
       </c>
@@ -9498,7 +9403,7 @@
         <v>235</v>
       </c>
       <c r="L109" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M109" s="38"/>
       <c r="N109" s="38"/>
@@ -9514,7 +9419,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="35">
         <v>141</v>
       </c>
@@ -9541,7 +9446,7 @@
         <v>235</v>
       </c>
       <c r="L110" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M110" s="38"/>
       <c r="N110" s="38"/>
@@ -9557,7 +9462,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="35">
         <v>142</v>
       </c>
@@ -9584,7 +9489,7 @@
         <v>235</v>
       </c>
       <c r="L111" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M111" s="38"/>
       <c r="N111" s="38"/>
@@ -9600,7 +9505,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="35">
         <v>143</v>
       </c>
@@ -9627,7 +9532,7 @@
         <v>235</v>
       </c>
       <c r="L112" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M112" s="38"/>
       <c r="N112" s="38"/>
@@ -9643,7 +9548,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="35">
         <v>144</v>
       </c>
@@ -9670,7 +9575,7 @@
         <v>235</v>
       </c>
       <c r="L113" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M113" s="38"/>
       <c r="N113" s="38"/>
@@ -9686,7 +9591,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="35">
         <v>145</v>
       </c>
@@ -9713,7 +9618,7 @@
         <v>235</v>
       </c>
       <c r="L114" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M114" s="38"/>
       <c r="N114" s="38"/>
@@ -9729,7 +9634,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="35">
         <v>146</v>
       </c>
@@ -9756,7 +9661,7 @@
         <v>235</v>
       </c>
       <c r="L115" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M115" s="38"/>
       <c r="N115" s="38"/>
@@ -9772,7 +9677,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="35">
         <v>152</v>
       </c>
@@ -9833,7 +9738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="35">
         <v>154</v>
       </c>
@@ -9894,7 +9799,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="35">
         <v>155</v>
       </c>
@@ -9955,7 +9860,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="35">
         <v>156</v>
       </c>
@@ -10016,7 +9921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="35">
         <v>159</v>
       </c>
@@ -10077,7 +9982,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="35">
         <v>160</v>
       </c>
@@ -10138,7 +10043,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="35">
         <v>161</v>
       </c>
@@ -10199,7 +10104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="35">
         <v>162</v>
       </c>
@@ -10260,7 +10165,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="35">
         <v>163</v>
       </c>
@@ -10321,7 +10226,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="35">
         <v>164</v>
       </c>
@@ -10382,7 +10287,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="35">
         <v>165</v>
       </c>
@@ -10443,7 +10348,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="35">
         <v>166</v>
       </c>
@@ -10504,7 +10409,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="35">
         <v>167</v>
       </c>
@@ -10565,7 +10470,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="35">
         <v>168</v>
       </c>
@@ -10626,7 +10531,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="35">
         <v>169</v>
       </c>
@@ -10687,7 +10592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="35">
         <v>175</v>
       </c>
@@ -10714,7 +10619,7 @@
         <v>235</v>
       </c>
       <c r="L131" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M131" s="38"/>
       <c r="N131" s="38"/>
@@ -10730,7 +10635,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="35">
         <v>177</v>
       </c>
@@ -10757,7 +10662,7 @@
         <v>235</v>
       </c>
       <c r="L132" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M132" s="38"/>
       <c r="N132" s="38"/>
@@ -10773,7 +10678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="35">
         <v>178</v>
       </c>
@@ -10800,7 +10705,7 @@
         <v>235</v>
       </c>
       <c r="L133" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M133" s="38"/>
       <c r="N133" s="38"/>
@@ -10816,7 +10721,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="35">
         <v>179</v>
       </c>
@@ -10843,7 +10748,7 @@
         <v>235</v>
       </c>
       <c r="L134" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M134" s="38"/>
       <c r="N134" s="38"/>
@@ -10859,7 +10764,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="35">
         <v>180</v>
       </c>
@@ -10886,7 +10791,7 @@
         <v>235</v>
       </c>
       <c r="L135" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M135" s="38"/>
       <c r="N135" s="38"/>
@@ -10902,7 +10807,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="35">
         <v>181</v>
       </c>
@@ -10929,7 +10834,7 @@
         <v>235</v>
       </c>
       <c r="L136" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M136" s="38"/>
       <c r="N136" s="38"/>
@@ -10945,7 +10850,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="35">
         <v>182</v>
       </c>
@@ -10972,7 +10877,7 @@
         <v>235</v>
       </c>
       <c r="L137" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M137" s="38"/>
       <c r="N137" s="38"/>
@@ -10988,7 +10893,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="35">
         <v>183</v>
       </c>
@@ -11015,7 +10920,7 @@
         <v>235</v>
       </c>
       <c r="L138" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M138" s="38"/>
       <c r="N138" s="38"/>
@@ -11031,7 +10936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="35">
         <v>184</v>
       </c>
@@ -11058,7 +10963,7 @@
         <v>235</v>
       </c>
       <c r="L139" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M139" s="38"/>
       <c r="N139" s="38"/>
@@ -11074,7 +10979,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="35">
         <v>185</v>
       </c>
@@ -11101,7 +11006,7 @@
         <v>235</v>
       </c>
       <c r="L140" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M140" s="38"/>
       <c r="N140" s="38"/>
@@ -11117,7 +11022,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="35">
         <v>186</v>
       </c>
@@ -11144,7 +11049,7 @@
         <v>235</v>
       </c>
       <c r="L141" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M141" s="38"/>
       <c r="N141" s="38"/>
@@ -11160,7 +11065,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="35">
         <v>187</v>
       </c>
@@ -11187,7 +11092,7 @@
         <v>235</v>
       </c>
       <c r="L142" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
@@ -11203,7 +11108,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="35">
         <v>188</v>
       </c>
@@ -11230,7 +11135,7 @@
         <v>235</v>
       </c>
       <c r="L143" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
@@ -11246,7 +11151,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="35">
         <v>189</v>
       </c>
@@ -11273,7 +11178,7 @@
         <v>235</v>
       </c>
       <c r="L144" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
@@ -11289,7 +11194,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="35">
         <v>190</v>
       </c>
@@ -11316,7 +11221,7 @@
         <v>235</v>
       </c>
       <c r="L145" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M145" s="38"/>
       <c r="N145" s="38"/>
@@ -11332,7 +11237,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="35">
         <v>191</v>
       </c>
@@ -11359,7 +11264,7 @@
         <v>235</v>
       </c>
       <c r="L146" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M146" s="38"/>
       <c r="N146" s="38"/>
@@ -11375,7 +11280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="35">
         <v>376</v>
       </c>
@@ -11402,7 +11307,7 @@
         <v>235</v>
       </c>
       <c r="L147" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
@@ -11434,23 +11339,19 @@
       <c r="E148" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="F148" s="47">
-        <v>45997</v>
-      </c>
-      <c r="G148" s="37" t="s">
-        <v>607</v>
-      </c>
-      <c r="H148" s="37" t="s">
-        <v>608</v>
-      </c>
-      <c r="I148" s="42" t="s">
-        <v>609</v>
-      </c>
+      <c r="F148" s="47"/>
+      <c r="G148" s="37"/>
+      <c r="H148" s="37"/>
+      <c r="I148" s="42"/>
       <c r="J148" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K148" s="38"/>
-      <c r="L148" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="K148" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L148" s="38" t="s">
+        <v>614</v>
+      </c>
       <c r="M148" s="38"/>
       <c r="N148" s="38"/>
       <c r="O148" s="38"/>
@@ -11481,23 +11382,19 @@
       <c r="E149" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="F149" s="47">
-        <v>45997</v>
-      </c>
-      <c r="G149" s="37" t="s">
-        <v>610</v>
-      </c>
-      <c r="H149" s="37" t="s">
-        <v>611</v>
-      </c>
-      <c r="I149" s="42" t="s">
-        <v>612</v>
-      </c>
+      <c r="F149" s="47"/>
+      <c r="G149" s="37"/>
+      <c r="H149" s="37"/>
+      <c r="I149" s="42"/>
       <c r="J149" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K149" s="38"/>
-      <c r="L149" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="K149" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L149" s="38" t="s">
+        <v>614</v>
+      </c>
       <c r="M149" s="38"/>
       <c r="N149" s="38"/>
       <c r="O149" s="38"/>
@@ -11512,7 +11409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="35">
         <v>419</v>
       </c>
@@ -11539,7 +11436,7 @@
         <v>235</v>
       </c>
       <c r="L150" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M150" s="38"/>
       <c r="N150" s="38"/>
@@ -11555,7 +11452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="35">
         <v>423</v>
       </c>
@@ -11582,7 +11479,7 @@
         <v>235</v>
       </c>
       <c r="L151" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M151" s="38"/>
       <c r="N151" s="38"/>
@@ -11598,7 +11495,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="35">
         <v>424</v>
       </c>
@@ -11625,7 +11522,7 @@
         <v>235</v>
       </c>
       <c r="L152" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M152" s="38"/>
       <c r="N152" s="38"/>
@@ -11641,7 +11538,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="35">
         <v>425</v>
       </c>
@@ -11668,7 +11565,7 @@
         <v>235</v>
       </c>
       <c r="L153" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M153" s="38" t="s">
         <v>64</v>
@@ -11696,7 +11593,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="35">
         <v>432</v>
       </c>
@@ -11723,7 +11620,7 @@
         <v>235</v>
       </c>
       <c r="L154" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M154" s="38"/>
       <c r="N154" s="38"/>
@@ -11739,7 +11636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="35">
         <v>433</v>
       </c>
@@ -11766,7 +11663,7 @@
         <v>235</v>
       </c>
       <c r="L155" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M155" s="38"/>
       <c r="N155" s="38"/>
@@ -11782,7 +11679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="35">
         <v>434</v>
       </c>
@@ -11809,7 +11706,7 @@
         <v>235</v>
       </c>
       <c r="L156" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M156" s="38"/>
       <c r="N156" s="38"/>
@@ -11825,7 +11722,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="35">
         <v>435</v>
       </c>
@@ -11852,7 +11749,7 @@
         <v>235</v>
       </c>
       <c r="L157" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M157" s="38"/>
       <c r="N157" s="38"/>
@@ -11868,7 +11765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="35">
         <v>437</v>
       </c>
@@ -11895,7 +11792,7 @@
         <v>235</v>
       </c>
       <c r="L158" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M158" s="38"/>
       <c r="N158" s="38"/>
@@ -11911,7 +11808,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="35">
         <v>438</v>
       </c>
@@ -11938,7 +11835,7 @@
         <v>235</v>
       </c>
       <c r="L159" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M159" s="38"/>
       <c r="N159" s="38"/>
@@ -11954,7 +11851,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="35">
         <v>440</v>
       </c>
@@ -11981,7 +11878,7 @@
         <v>235</v>
       </c>
       <c r="L160" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M160" s="38"/>
       <c r="N160" s="38"/>
@@ -11997,7 +11894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="35">
         <v>441</v>
       </c>
@@ -12024,7 +11921,7 @@
         <v>235</v>
       </c>
       <c r="L161" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M161" s="38"/>
       <c r="N161" s="38"/>
@@ -12040,7 +11937,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="35">
         <v>442</v>
       </c>
@@ -12067,7 +11964,7 @@
         <v>235</v>
       </c>
       <c r="L162" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M162" s="38"/>
       <c r="N162" s="38"/>
@@ -12083,7 +11980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="35">
         <v>443</v>
       </c>
@@ -12110,7 +12007,7 @@
         <v>235</v>
       </c>
       <c r="L163" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M163" s="38"/>
       <c r="N163" s="38"/>
@@ -12126,7 +12023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="35">
         <v>448</v>
       </c>
@@ -12173,7 +12070,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="35">
         <v>449</v>
       </c>
@@ -12236,23 +12133,19 @@
       <c r="E166" s="43" t="s">
         <v>363</v>
       </c>
-      <c r="F166" s="47">
-        <v>45997</v>
-      </c>
-      <c r="G166" s="37" t="s">
-        <v>613</v>
-      </c>
-      <c r="H166" s="37" t="s">
+      <c r="F166" s="47"/>
+      <c r="G166" s="37"/>
+      <c r="H166" s="37"/>
+      <c r="I166" s="42"/>
+      <c r="J166" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K166" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L166" s="38" t="s">
         <v>614</v>
       </c>
-      <c r="I166" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="J166" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K166" s="38"/>
-      <c r="L166" s="38"/>
       <c r="M166" s="38"/>
       <c r="N166" s="38"/>
       <c r="O166" s="38"/>
@@ -12267,7 +12160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="35">
         <v>451</v>
       </c>
@@ -12294,7 +12187,7 @@
         <v>235</v>
       </c>
       <c r="L167" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M167" s="38"/>
       <c r="N167" s="38"/>
@@ -12326,23 +12219,19 @@
       <c r="E168" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="F168" s="47">
-        <v>45997</v>
-      </c>
-      <c r="G168" s="37" t="s">
-        <v>616</v>
-      </c>
-      <c r="H168" s="37" t="s">
-        <v>617</v>
-      </c>
-      <c r="I168" s="42" t="s">
-        <v>618</v>
-      </c>
+      <c r="F168" s="47"/>
+      <c r="G168" s="37"/>
+      <c r="H168" s="37"/>
+      <c r="I168" s="42"/>
       <c r="J168" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K168" s="38"/>
-      <c r="L168" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="K168" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L168" s="38" t="s">
+        <v>614</v>
+      </c>
       <c r="M168" s="38"/>
       <c r="N168" s="38"/>
       <c r="O168" s="38"/>
@@ -12373,23 +12262,19 @@
       <c r="E169" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="F169" s="47">
-        <v>45997</v>
-      </c>
-      <c r="G169" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="H169" s="37" t="s">
-        <v>620</v>
-      </c>
-      <c r="I169" s="42" t="s">
-        <v>621</v>
-      </c>
+      <c r="F169" s="47"/>
+      <c r="G169" s="37"/>
+      <c r="H169" s="37"/>
+      <c r="I169" s="42"/>
       <c r="J169" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K169" s="38"/>
-      <c r="L169" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="K169" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L169" s="38" t="s">
+        <v>614</v>
+      </c>
       <c r="M169" s="38"/>
       <c r="N169" s="38"/>
       <c r="O169" s="38"/>
@@ -12420,23 +12305,19 @@
       <c r="E170" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="F170" s="47">
-        <v>45997</v>
-      </c>
-      <c r="G170" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="H170" s="37" t="s">
-        <v>620</v>
-      </c>
-      <c r="I170" s="42" t="s">
-        <v>621</v>
-      </c>
+      <c r="F170" s="47"/>
+      <c r="G170" s="37"/>
+      <c r="H170" s="37"/>
+      <c r="I170" s="42"/>
       <c r="J170" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K170" s="38"/>
-      <c r="L170" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="K170" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L170" s="38" t="s">
+        <v>614</v>
+      </c>
       <c r="M170" s="38"/>
       <c r="N170" s="38"/>
       <c r="O170" s="38"/>
@@ -12467,23 +12348,19 @@
       <c r="E171" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="F171" s="47">
-        <v>45997</v>
-      </c>
-      <c r="G171" s="37" t="s">
-        <v>622</v>
-      </c>
-      <c r="H171" s="37" t="s">
-        <v>623</v>
-      </c>
-      <c r="I171" s="42" t="s">
-        <v>624</v>
-      </c>
+      <c r="F171" s="47"/>
+      <c r="G171" s="37"/>
+      <c r="H171" s="37"/>
+      <c r="I171" s="42"/>
       <c r="J171" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K171" s="38"/>
-      <c r="L171" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="K171" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L171" s="38" t="s">
+        <v>614</v>
+      </c>
       <c r="M171" s="38"/>
       <c r="N171" s="38"/>
       <c r="O171" s="38"/>
@@ -12514,23 +12391,19 @@
       <c r="E172" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="F172" s="47">
-        <v>45997</v>
-      </c>
-      <c r="G172" s="37" t="s">
-        <v>625</v>
-      </c>
-      <c r="H172" s="37" t="s">
-        <v>626</v>
-      </c>
-      <c r="I172" s="42" t="s">
-        <v>627</v>
-      </c>
+      <c r="F172" s="47"/>
+      <c r="G172" s="37"/>
+      <c r="H172" s="37"/>
+      <c r="I172" s="42"/>
       <c r="J172" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K172" s="38"/>
-      <c r="L172" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="K172" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L172" s="38" t="s">
+        <v>614</v>
+      </c>
       <c r="M172" s="38"/>
       <c r="N172" s="38"/>
       <c r="O172" s="38"/>
@@ -12561,23 +12434,19 @@
       <c r="E173" s="43" t="s">
         <v>367</v>
       </c>
-      <c r="F173" s="47">
-        <v>45997</v>
-      </c>
-      <c r="G173" s="37" t="s">
-        <v>625</v>
-      </c>
-      <c r="H173" s="37" t="s">
-        <v>626</v>
-      </c>
-      <c r="I173" s="42" t="s">
-        <v>627</v>
-      </c>
+      <c r="F173" s="47"/>
+      <c r="G173" s="37"/>
+      <c r="H173" s="37"/>
+      <c r="I173" s="42"/>
       <c r="J173" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K173" s="38"/>
-      <c r="L173" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="K173" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L173" s="38" t="s">
+        <v>614</v>
+      </c>
       <c r="M173" s="38"/>
       <c r="N173" s="38"/>
       <c r="O173" s="38"/>
@@ -12608,23 +12477,19 @@
       <c r="E174" s="43" t="s">
         <v>368</v>
       </c>
-      <c r="F174" s="47">
-        <v>45997</v>
-      </c>
-      <c r="G174" s="37" t="s">
-        <v>628</v>
-      </c>
-      <c r="H174" s="37" t="s">
-        <v>629</v>
-      </c>
-      <c r="I174" s="42" t="s">
-        <v>630</v>
-      </c>
+      <c r="F174" s="47"/>
+      <c r="G174" s="37"/>
+      <c r="H174" s="37"/>
+      <c r="I174" s="42"/>
       <c r="J174" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K174" s="38"/>
-      <c r="L174" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="K174" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L174" s="38" t="s">
+        <v>614</v>
+      </c>
       <c r="M174" s="38"/>
       <c r="N174" s="38"/>
       <c r="O174" s="38"/>
@@ -12655,23 +12520,19 @@
       <c r="E175" s="43" t="s">
         <v>356</v>
       </c>
-      <c r="F175" s="47">
-        <v>45997</v>
-      </c>
-      <c r="G175" s="37" t="s">
-        <v>631</v>
-      </c>
-      <c r="H175" s="37" t="s">
-        <v>632</v>
-      </c>
-      <c r="I175" s="42" t="s">
-        <v>633</v>
-      </c>
+      <c r="F175" s="47"/>
+      <c r="G175" s="37"/>
+      <c r="H175" s="37"/>
+      <c r="I175" s="42"/>
       <c r="J175" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K175" s="38"/>
-      <c r="L175" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="K175" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L175" s="38" t="s">
+        <v>614</v>
+      </c>
       <c r="M175" s="38"/>
       <c r="N175" s="38"/>
       <c r="O175" s="38"/>
@@ -12686,7 +12547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="35">
         <v>461</v>
       </c>
@@ -12747,7 +12608,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="35">
         <v>462</v>
       </c>
@@ -12808,7 +12669,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="35">
         <v>463</v>
       </c>
@@ -12835,7 +12696,7 @@
         <v>235</v>
       </c>
       <c r="L178" s="35" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M178" s="38"/>
       <c r="N178" s="38"/>
@@ -12851,7 +12712,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="35">
         <v>464</v>
       </c>
@@ -12878,7 +12739,7 @@
         <v>235</v>
       </c>
       <c r="L179" s="35" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M179" s="38"/>
       <c r="N179" s="38"/>
@@ -12894,7 +12755,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="35">
         <v>465</v>
       </c>
@@ -12921,7 +12782,7 @@
         <v>235</v>
       </c>
       <c r="L180" s="35" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M180" s="38"/>
       <c r="N180" s="38"/>
@@ -12937,7 +12798,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="35">
         <v>466</v>
       </c>
@@ -12964,7 +12825,7 @@
         <v>235</v>
       </c>
       <c r="L181" s="35" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M181" s="38"/>
       <c r="N181" s="38"/>
@@ -12980,7 +12841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="35">
         <v>467</v>
       </c>
@@ -13007,7 +12868,7 @@
         <v>235</v>
       </c>
       <c r="L182" s="35" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M182" s="38"/>
       <c r="N182" s="38"/>
@@ -13023,7 +12884,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="35">
         <v>468</v>
       </c>
@@ -13100,44 +12961,26 @@
       <c r="E184" s="43" t="s">
         <v>398</v>
       </c>
-      <c r="F184" s="47">
-        <v>45997</v>
-      </c>
-      <c r="G184" s="35" t="s">
-        <v>634</v>
-      </c>
-      <c r="H184" s="35" t="s">
-        <v>635</v>
-      </c>
-      <c r="I184" s="35" t="s">
-        <v>636</v>
-      </c>
+      <c r="F184" s="47"/>
+      <c r="G184" s="35"/>
+      <c r="H184" s="35"/>
+      <c r="I184" s="35"/>
       <c r="J184" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K184" s="38"/>
-      <c r="L184" s="35"/>
-      <c r="M184" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="N184" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="O184" s="35" t="s">
-        <v>637</v>
-      </c>
-      <c r="P184" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q184" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="R184" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="S184" s="35" t="s">
-        <v>638</v>
-      </c>
+      <c r="K184" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L184" s="38" t="s">
+        <v>614</v>
+      </c>
+      <c r="M184" s="38"/>
+      <c r="N184" s="38"/>
+      <c r="O184" s="35"/>
+      <c r="P184" s="38"/>
+      <c r="Q184" s="38"/>
+      <c r="R184" s="38"/>
+      <c r="S184" s="35"/>
       <c r="T184" s="38"/>
       <c r="U184" s="35"/>
       <c r="V184" s="35"/>
@@ -13161,44 +13004,26 @@
       <c r="E185" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="F185" s="47">
-        <v>45997</v>
-      </c>
-      <c r="G185" s="35" t="s">
-        <v>634</v>
-      </c>
-      <c r="H185" s="35" t="s">
-        <v>635</v>
-      </c>
-      <c r="I185" s="35" t="s">
-        <v>636</v>
-      </c>
+      <c r="F185" s="47"/>
+      <c r="G185" s="35"/>
+      <c r="H185" s="35"/>
+      <c r="I185" s="35"/>
       <c r="J185" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K185" s="38"/>
-      <c r="L185" s="35"/>
-      <c r="M185" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="N185" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="O185" s="35" t="s">
-        <v>637</v>
-      </c>
-      <c r="P185" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q185" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="R185" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="S185" s="35" t="s">
-        <v>638</v>
-      </c>
+      <c r="K185" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L185" s="38" t="s">
+        <v>614</v>
+      </c>
+      <c r="M185" s="38"/>
+      <c r="N185" s="38"/>
+      <c r="O185" s="35"/>
+      <c r="P185" s="38"/>
+      <c r="Q185" s="38"/>
+      <c r="R185" s="38"/>
+      <c r="S185" s="35"/>
       <c r="T185" s="38"/>
       <c r="U185" s="35"/>
       <c r="V185" s="35"/>
@@ -13206,7 +13031,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="35">
         <v>471</v>
       </c>
@@ -13253,7 +13078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="35">
         <v>472</v>
       </c>
@@ -13300,7 +13125,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="35">
         <v>473</v>
       </c>
@@ -13327,7 +13152,7 @@
         <v>235</v>
       </c>
       <c r="L188" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M188" s="38"/>
       <c r="N188" s="38"/>
@@ -13343,7 +13168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="35">
         <v>474</v>
       </c>
@@ -13404,7 +13229,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="35">
         <v>475</v>
       </c>
@@ -13465,7 +13290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="35">
         <v>476</v>
       </c>
@@ -13485,13 +13310,13 @@
         <v>46009</v>
       </c>
       <c r="G191" s="37" t="s">
-        <v>643</v>
+        <v>611</v>
       </c>
       <c r="H191" s="49" t="s">
-        <v>644</v>
+        <v>612</v>
       </c>
       <c r="I191" s="42" t="s">
-        <v>645</v>
+        <v>613</v>
       </c>
       <c r="J191" s="38" t="s">
         <v>64</v>
@@ -13512,7 +13337,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="35">
         <v>477</v>
       </c>
@@ -13539,7 +13364,7 @@
         <v>235</v>
       </c>
       <c r="L192" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M192" s="38"/>
       <c r="N192" s="38"/>
@@ -13555,7 +13380,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="35">
         <v>478</v>
       </c>
@@ -13582,7 +13407,7 @@
         <v>235</v>
       </c>
       <c r="L193" s="38" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="M193" s="38"/>
       <c r="N193" s="38"/>
@@ -17555,7 +17380,25 @@
     <row r="749" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="750" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A9:W193" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A9:W193" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="417"/>
+        <filter val="418"/>
+        <filter val="450"/>
+        <filter val="452"/>
+        <filter val="454"/>
+        <filter val="455"/>
+        <filter val="456"/>
+        <filter val="457"/>
+        <filter val="458"/>
+        <filter val="459"/>
+        <filter val="460"/>
+        <filter val="469"/>
+        <filter val="470"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -19839,12 +19682,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19992,15 +19832,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20024,18 +19876,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/S1#111#JOINSOFTSRLXX/Joinsoft_Srl/Gestione_Stabilimenti_Termali/Ver_6.31/report-checklist.xlsx
+++ b/GATEWAY/S1#111#JOINSOFTSRLXX/Joinsoft_Srl/Gestione_Stabilimenti_Termali/Ver_6.31/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC29AF3-17ED-4108-9BA6-47A7212B288E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1052114-0F5F-4965-AE62-87DE9DC97F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="-13620" windowWidth="21840" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="612">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2240,15 +2240,6 @@
   </si>
   <si>
     <t>subject_application_version:Ver 6.31</t>
-  </si>
-  <si>
-    <t>2025-12-18T12:09:15.536Z</t>
-  </si>
-  <si>
-    <t>0981dc72c47fff62b1c835f22e87fb9d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.6940e30e4e561f703fb6ca5eab2da3b67d7dbf35b4a8b77ab5513bd27c8edf6d.94a7781d3b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Test non previsto per il solo  accreditamento per RSA e RAD</t>
@@ -4351,10 +4342,10 @@
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="R185" sqref="R185"/>
+      <selection pane="bottomRight" activeCell="L191" sqref="L191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4668,7 +4659,7 @@
         <v>235</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
@@ -4711,7 +4702,7 @@
         <v>235</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
@@ -4754,7 +4745,7 @@
         <v>235</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
@@ -4770,7 +4761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35">
         <v>30</v>
       </c>
@@ -4797,7 +4788,7 @@
         <v>235</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
@@ -4962,7 +4953,7 @@
         <v>235</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -5005,7 +4996,7 @@
         <v>235</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
@@ -5048,7 +5039,7 @@
         <v>235</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
@@ -5091,7 +5082,7 @@
         <v>235</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
@@ -5134,7 +5125,7 @@
         <v>235</v>
       </c>
       <c r="L20" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M20" s="38"/>
       <c r="N20" s="38"/>
@@ -5150,7 +5141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="35">
         <v>38</v>
       </c>
@@ -5177,7 +5168,7 @@
         <v>235</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
@@ -5342,7 +5333,7 @@
         <v>235</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
@@ -5385,7 +5376,7 @@
         <v>235</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
@@ -5428,7 +5419,7 @@
         <v>235</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
@@ -5471,7 +5462,7 @@
         <v>235</v>
       </c>
       <c r="L27" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M27" s="38" t="s">
         <v>64</v>
@@ -5528,7 +5519,7 @@
         <v>235</v>
       </c>
       <c r="L28" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M28" s="38" t="s">
         <v>64</v>
@@ -5558,7 +5549,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="35">
         <v>46</v>
       </c>
@@ -5585,7 +5576,7 @@
         <v>235</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M29" s="38" t="s">
         <v>64</v>
@@ -5762,7 +5753,7 @@
         <v>235</v>
       </c>
       <c r="L32" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M32" s="38" t="s">
         <v>64</v>
@@ -5819,7 +5810,7 @@
         <v>235</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M33" s="38" t="s">
         <v>64</v>
@@ -5876,7 +5867,7 @@
         <v>235</v>
       </c>
       <c r="L34" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M34" s="38" t="s">
         <v>64</v>
@@ -5933,7 +5924,7 @@
         <v>235</v>
       </c>
       <c r="L35" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
@@ -5976,7 +5967,7 @@
         <v>235</v>
       </c>
       <c r="L36" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
@@ -6019,7 +6010,7 @@
         <v>235</v>
       </c>
       <c r="L37" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M37" s="38"/>
       <c r="N37" s="38"/>
@@ -6062,7 +6053,7 @@
         <v>235</v>
       </c>
       <c r="L38" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M38" s="38"/>
       <c r="N38" s="38"/>
@@ -6105,7 +6096,7 @@
         <v>235</v>
       </c>
       <c r="L39" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
@@ -6148,7 +6139,7 @@
         <v>235</v>
       </c>
       <c r="L40" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
@@ -6191,7 +6182,7 @@
         <v>235</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
@@ -6234,7 +6225,7 @@
         <v>235</v>
       </c>
       <c r="L42" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
@@ -6277,7 +6268,7 @@
         <v>235</v>
       </c>
       <c r="L43" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M43" s="38"/>
       <c r="N43" s="38"/>
@@ -6320,7 +6311,7 @@
         <v>235</v>
       </c>
       <c r="L44" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M44" s="38"/>
       <c r="N44" s="38"/>
@@ -6363,7 +6354,7 @@
         <v>235</v>
       </c>
       <c r="L45" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
@@ -6406,7 +6397,7 @@
         <v>235</v>
       </c>
       <c r="L46" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M46" s="38"/>
       <c r="N46" s="38"/>
@@ -6449,7 +6440,7 @@
         <v>235</v>
       </c>
       <c r="L47" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
@@ -6492,7 +6483,7 @@
         <v>235</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M48" s="38"/>
       <c r="N48" s="38"/>
@@ -6535,7 +6526,7 @@
         <v>235</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M49" s="38"/>
       <c r="N49" s="38"/>
@@ -6578,7 +6569,7 @@
         <v>235</v>
       </c>
       <c r="L50" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M50" s="38"/>
       <c r="N50" s="38"/>
@@ -6621,7 +6612,7 @@
         <v>235</v>
       </c>
       <c r="L51" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M51" s="38"/>
       <c r="N51" s="38"/>
@@ -6664,7 +6655,7 @@
         <v>235</v>
       </c>
       <c r="L52" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M52" s="38"/>
       <c r="N52" s="38"/>
@@ -7683,7 +7674,7 @@
         <v>235</v>
       </c>
       <c r="L69" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M69" s="38"/>
       <c r="N69" s="38"/>
@@ -7726,7 +7717,7 @@
         <v>235</v>
       </c>
       <c r="L70" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M70" s="38"/>
       <c r="N70" s="38"/>
@@ -7769,7 +7760,7 @@
         <v>235</v>
       </c>
       <c r="L71" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M71" s="38"/>
       <c r="N71" s="38"/>
@@ -7812,7 +7803,7 @@
         <v>235</v>
       </c>
       <c r="L72" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M72" s="38"/>
       <c r="N72" s="38"/>
@@ -7855,7 +7846,7 @@
         <v>235</v>
       </c>
       <c r="L73" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M73" s="38"/>
       <c r="N73" s="38"/>
@@ -7898,7 +7889,7 @@
         <v>235</v>
       </c>
       <c r="L74" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M74" s="38"/>
       <c r="N74" s="38"/>
@@ -7941,7 +7932,7 @@
         <v>235</v>
       </c>
       <c r="L75" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M75" s="38"/>
       <c r="N75" s="38"/>
@@ -7984,7 +7975,7 @@
         <v>235</v>
       </c>
       <c r="L76" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M76" s="38"/>
       <c r="N76" s="38"/>
@@ -8027,7 +8018,7 @@
         <v>235</v>
       </c>
       <c r="L77" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M77" s="38"/>
       <c r="N77" s="38"/>
@@ -8070,7 +8061,7 @@
         <v>235</v>
       </c>
       <c r="L78" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M78" s="38"/>
       <c r="N78" s="38"/>
@@ -8113,7 +8104,7 @@
         <v>235</v>
       </c>
       <c r="L79" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M79" s="38"/>
       <c r="N79" s="38"/>
@@ -8156,7 +8147,7 @@
         <v>235</v>
       </c>
       <c r="L80" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M80" s="38"/>
       <c r="N80" s="38"/>
@@ -8199,7 +8190,7 @@
         <v>235</v>
       </c>
       <c r="L81" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M81" s="38"/>
       <c r="N81" s="38"/>
@@ -8242,7 +8233,7 @@
         <v>235</v>
       </c>
       <c r="L82" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M82" s="38"/>
       <c r="N82" s="38"/>
@@ -8285,7 +8276,7 @@
         <v>235</v>
       </c>
       <c r="L83" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M83" s="38"/>
       <c r="N83" s="38"/>
@@ -8328,7 +8319,7 @@
         <v>235</v>
       </c>
       <c r="L84" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M84" s="38"/>
       <c r="N84" s="38"/>
@@ -8371,7 +8362,7 @@
         <v>235</v>
       </c>
       <c r="L85" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M85" s="38"/>
       <c r="N85" s="38"/>
@@ -8414,7 +8405,7 @@
         <v>235</v>
       </c>
       <c r="L86" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M86" s="38"/>
       <c r="N86" s="38"/>
@@ -8457,7 +8448,7 @@
         <v>235</v>
       </c>
       <c r="L87" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M87" s="38"/>
       <c r="N87" s="38"/>
@@ -8500,7 +8491,7 @@
         <v>235</v>
       </c>
       <c r="L88" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M88" s="38"/>
       <c r="N88" s="38"/>
@@ -8543,7 +8534,7 @@
         <v>235</v>
       </c>
       <c r="L89" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M89" s="38"/>
       <c r="N89" s="38"/>
@@ -8586,7 +8577,7 @@
         <v>235</v>
       </c>
       <c r="L90" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M90" s="38"/>
       <c r="N90" s="38"/>
@@ -8629,7 +8620,7 @@
         <v>235</v>
       </c>
       <c r="L91" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M91" s="38"/>
       <c r="N91" s="38"/>
@@ -8672,7 +8663,7 @@
         <v>235</v>
       </c>
       <c r="L92" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M92" s="38"/>
       <c r="N92" s="38"/>
@@ -8715,7 +8706,7 @@
         <v>235</v>
       </c>
       <c r="L93" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M93" s="38"/>
       <c r="N93" s="38"/>
@@ -8758,7 +8749,7 @@
         <v>235</v>
       </c>
       <c r="L94" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M94" s="38"/>
       <c r="N94" s="38"/>
@@ -8801,7 +8792,7 @@
         <v>235</v>
       </c>
       <c r="L95" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M95" s="38"/>
       <c r="N95" s="38"/>
@@ -8844,7 +8835,7 @@
         <v>235</v>
       </c>
       <c r="L96" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M96" s="38"/>
       <c r="N96" s="38"/>
@@ -8887,7 +8878,7 @@
         <v>235</v>
       </c>
       <c r="L97" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M97" s="38"/>
       <c r="N97" s="38"/>
@@ -8930,7 +8921,7 @@
         <v>235</v>
       </c>
       <c r="L98" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M98" s="38"/>
       <c r="N98" s="38"/>
@@ -8973,7 +8964,7 @@
         <v>235</v>
       </c>
       <c r="L99" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M99" s="38"/>
       <c r="N99" s="38"/>
@@ -9016,7 +9007,7 @@
         <v>235</v>
       </c>
       <c r="L100" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M100" s="38"/>
       <c r="N100" s="38"/>
@@ -9059,7 +9050,7 @@
         <v>235</v>
       </c>
       <c r="L101" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M101" s="38"/>
       <c r="N101" s="38"/>
@@ -9102,7 +9093,7 @@
         <v>235</v>
       </c>
       <c r="L102" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M102" s="38"/>
       <c r="N102" s="38"/>
@@ -9145,7 +9136,7 @@
         <v>235</v>
       </c>
       <c r="L103" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M103" s="38"/>
       <c r="N103" s="38"/>
@@ -9188,7 +9179,7 @@
         <v>235</v>
       </c>
       <c r="L104" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M104" s="38"/>
       <c r="N104" s="38"/>
@@ -9231,7 +9222,7 @@
         <v>235</v>
       </c>
       <c r="L105" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M105" s="38"/>
       <c r="N105" s="38"/>
@@ -9274,7 +9265,7 @@
         <v>235</v>
       </c>
       <c r="L106" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M106" s="38"/>
       <c r="N106" s="38"/>
@@ -9317,7 +9308,7 @@
         <v>235</v>
       </c>
       <c r="L107" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M107" s="38"/>
       <c r="N107" s="38"/>
@@ -9360,7 +9351,7 @@
         <v>235</v>
       </c>
       <c r="L108" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M108" s="38"/>
       <c r="N108" s="38"/>
@@ -9403,7 +9394,7 @@
         <v>235</v>
       </c>
       <c r="L109" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M109" s="38"/>
       <c r="N109" s="38"/>
@@ -9446,7 +9437,7 @@
         <v>235</v>
       </c>
       <c r="L110" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M110" s="38"/>
       <c r="N110" s="38"/>
@@ -9489,7 +9480,7 @@
         <v>235</v>
       </c>
       <c r="L111" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M111" s="38"/>
       <c r="N111" s="38"/>
@@ -9532,7 +9523,7 @@
         <v>235</v>
       </c>
       <c r="L112" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M112" s="38"/>
       <c r="N112" s="38"/>
@@ -9575,7 +9566,7 @@
         <v>235</v>
       </c>
       <c r="L113" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M113" s="38"/>
       <c r="N113" s="38"/>
@@ -9618,7 +9609,7 @@
         <v>235</v>
       </c>
       <c r="L114" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M114" s="38"/>
       <c r="N114" s="38"/>
@@ -9661,7 +9652,7 @@
         <v>235</v>
       </c>
       <c r="L115" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M115" s="38"/>
       <c r="N115" s="38"/>
@@ -10592,7 +10583,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="35">
         <v>175</v>
       </c>
@@ -10619,7 +10610,7 @@
         <v>235</v>
       </c>
       <c r="L131" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M131" s="38"/>
       <c r="N131" s="38"/>
@@ -10635,7 +10626,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="35">
         <v>177</v>
       </c>
@@ -10662,7 +10653,7 @@
         <v>235</v>
       </c>
       <c r="L132" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M132" s="38"/>
       <c r="N132" s="38"/>
@@ -10678,7 +10669,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="35">
         <v>178</v>
       </c>
@@ -10705,7 +10696,7 @@
         <v>235</v>
       </c>
       <c r="L133" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M133" s="38"/>
       <c r="N133" s="38"/>
@@ -10721,7 +10712,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="35">
         <v>179</v>
       </c>
@@ -10748,7 +10739,7 @@
         <v>235</v>
       </c>
       <c r="L134" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M134" s="38"/>
       <c r="N134" s="38"/>
@@ -10764,7 +10755,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="35">
         <v>180</v>
       </c>
@@ -10791,7 +10782,7 @@
         <v>235</v>
       </c>
       <c r="L135" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M135" s="38"/>
       <c r="N135" s="38"/>
@@ -10807,7 +10798,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="35">
         <v>181</v>
       </c>
@@ -10834,7 +10825,7 @@
         <v>235</v>
       </c>
       <c r="L136" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M136" s="38"/>
       <c r="N136" s="38"/>
@@ -10850,7 +10841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="35">
         <v>182</v>
       </c>
@@ -10877,7 +10868,7 @@
         <v>235</v>
       </c>
       <c r="L137" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M137" s="38"/>
       <c r="N137" s="38"/>
@@ -10893,7 +10884,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="35">
         <v>183</v>
       </c>
@@ -10920,7 +10911,7 @@
         <v>235</v>
       </c>
       <c r="L138" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M138" s="38"/>
       <c r="N138" s="38"/>
@@ -10936,7 +10927,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="35">
         <v>184</v>
       </c>
@@ -10963,7 +10954,7 @@
         <v>235</v>
       </c>
       <c r="L139" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M139" s="38"/>
       <c r="N139" s="38"/>
@@ -10979,7 +10970,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="35">
         <v>185</v>
       </c>
@@ -11006,7 +10997,7 @@
         <v>235</v>
       </c>
       <c r="L140" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M140" s="38"/>
       <c r="N140" s="38"/>
@@ -11022,7 +11013,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="35">
         <v>186</v>
       </c>
@@ -11049,7 +11040,7 @@
         <v>235</v>
       </c>
       <c r="L141" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M141" s="38"/>
       <c r="N141" s="38"/>
@@ -11065,7 +11056,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="35">
         <v>187</v>
       </c>
@@ -11092,7 +11083,7 @@
         <v>235</v>
       </c>
       <c r="L142" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
@@ -11108,7 +11099,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="35">
         <v>188</v>
       </c>
@@ -11135,7 +11126,7 @@
         <v>235</v>
       </c>
       <c r="L143" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
@@ -11151,7 +11142,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="35">
         <v>189</v>
       </c>
@@ -11178,7 +11169,7 @@
         <v>235</v>
       </c>
       <c r="L144" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
@@ -11194,7 +11185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="35">
         <v>190</v>
       </c>
@@ -11221,7 +11212,7 @@
         <v>235</v>
       </c>
       <c r="L145" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M145" s="38"/>
       <c r="N145" s="38"/>
@@ -11264,7 +11255,7 @@
         <v>235</v>
       </c>
       <c r="L146" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M146" s="38"/>
       <c r="N146" s="38"/>
@@ -11307,7 +11298,7 @@
         <v>235</v>
       </c>
       <c r="L147" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
@@ -11323,7 +11314,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="35">
         <v>417</v>
       </c>
@@ -11350,7 +11341,7 @@
         <v>235</v>
       </c>
       <c r="L148" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M148" s="38"/>
       <c r="N148" s="38"/>
@@ -11366,7 +11357,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="35">
         <v>418</v>
       </c>
@@ -11393,7 +11384,7 @@
         <v>235</v>
       </c>
       <c r="L149" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M149" s="38"/>
       <c r="N149" s="38"/>
@@ -11436,7 +11427,7 @@
         <v>235</v>
       </c>
       <c r="L150" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M150" s="38"/>
       <c r="N150" s="38"/>
@@ -11479,7 +11470,7 @@
         <v>235</v>
       </c>
       <c r="L151" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M151" s="38"/>
       <c r="N151" s="38"/>
@@ -11522,7 +11513,7 @@
         <v>235</v>
       </c>
       <c r="L152" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M152" s="38"/>
       <c r="N152" s="38"/>
@@ -11565,7 +11556,7 @@
         <v>235</v>
       </c>
       <c r="L153" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M153" s="38" t="s">
         <v>64</v>
@@ -11620,7 +11611,7 @@
         <v>235</v>
       </c>
       <c r="L154" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M154" s="38"/>
       <c r="N154" s="38"/>
@@ -11663,7 +11654,7 @@
         <v>235</v>
       </c>
       <c r="L155" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M155" s="38"/>
       <c r="N155" s="38"/>
@@ -11706,7 +11697,7 @@
         <v>235</v>
       </c>
       <c r="L156" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M156" s="38"/>
       <c r="N156" s="38"/>
@@ -11749,7 +11740,7 @@
         <v>235</v>
       </c>
       <c r="L157" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M157" s="38"/>
       <c r="N157" s="38"/>
@@ -11792,7 +11783,7 @@
         <v>235</v>
       </c>
       <c r="L158" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M158" s="38"/>
       <c r="N158" s="38"/>
@@ -11835,7 +11826,7 @@
         <v>235</v>
       </c>
       <c r="L159" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M159" s="38"/>
       <c r="N159" s="38"/>
@@ -11878,7 +11869,7 @@
         <v>235</v>
       </c>
       <c r="L160" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M160" s="38"/>
       <c r="N160" s="38"/>
@@ -11921,7 +11912,7 @@
         <v>235</v>
       </c>
       <c r="L161" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M161" s="38"/>
       <c r="N161" s="38"/>
@@ -11964,7 +11955,7 @@
         <v>235</v>
       </c>
       <c r="L162" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M162" s="38"/>
       <c r="N162" s="38"/>
@@ -12007,7 +11998,7 @@
         <v>235</v>
       </c>
       <c r="L163" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M163" s="38"/>
       <c r="N163" s="38"/>
@@ -12117,7 +12108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="35">
         <v>450</v>
       </c>
@@ -12144,7 +12135,7 @@
         <v>235</v>
       </c>
       <c r="L166" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M166" s="38"/>
       <c r="N166" s="38"/>
@@ -12187,7 +12178,7 @@
         <v>235</v>
       </c>
       <c r="L167" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M167" s="38"/>
       <c r="N167" s="38"/>
@@ -12203,7 +12194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="35">
         <v>452</v>
       </c>
@@ -12230,7 +12221,7 @@
         <v>235</v>
       </c>
       <c r="L168" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M168" s="38"/>
       <c r="N168" s="38"/>
@@ -12246,7 +12237,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="35">
         <v>454</v>
       </c>
@@ -12273,7 +12264,7 @@
         <v>235</v>
       </c>
       <c r="L169" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M169" s="38"/>
       <c r="N169" s="38"/>
@@ -12289,7 +12280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="35">
         <v>455</v>
       </c>
@@ -12316,7 +12307,7 @@
         <v>235</v>
       </c>
       <c r="L170" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M170" s="38"/>
       <c r="N170" s="38"/>
@@ -12332,7 +12323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="35">
         <v>456</v>
       </c>
@@ -12359,7 +12350,7 @@
         <v>235</v>
       </c>
       <c r="L171" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M171" s="38"/>
       <c r="N171" s="38"/>
@@ -12375,7 +12366,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="35">
         <v>457</v>
       </c>
@@ -12402,7 +12393,7 @@
         <v>235</v>
       </c>
       <c r="L172" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M172" s="38"/>
       <c r="N172" s="38"/>
@@ -12418,7 +12409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="35">
         <v>458</v>
       </c>
@@ -12445,7 +12436,7 @@
         <v>235</v>
       </c>
       <c r="L173" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M173" s="38"/>
       <c r="N173" s="38"/>
@@ -12461,7 +12452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="35">
         <v>459</v>
       </c>
@@ -12488,7 +12479,7 @@
         <v>235</v>
       </c>
       <c r="L174" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M174" s="38"/>
       <c r="N174" s="38"/>
@@ -12504,7 +12495,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="35">
         <v>460</v>
       </c>
@@ -12531,7 +12522,7 @@
         <v>235</v>
       </c>
       <c r="L175" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M175" s="38"/>
       <c r="N175" s="38"/>
@@ -12696,7 +12687,7 @@
         <v>235</v>
       </c>
       <c r="L178" s="35" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M178" s="38"/>
       <c r="N178" s="38"/>
@@ -12739,7 +12730,7 @@
         <v>235</v>
       </c>
       <c r="L179" s="35" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M179" s="38"/>
       <c r="N179" s="38"/>
@@ -12782,7 +12773,7 @@
         <v>235</v>
       </c>
       <c r="L180" s="35" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M180" s="38"/>
       <c r="N180" s="38"/>
@@ -12825,7 +12816,7 @@
         <v>235</v>
       </c>
       <c r="L181" s="35" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M181" s="38"/>
       <c r="N181" s="38"/>
@@ -12868,7 +12859,7 @@
         <v>235</v>
       </c>
       <c r="L182" s="35" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M182" s="38"/>
       <c r="N182" s="38"/>
@@ -12972,7 +12963,7 @@
         <v>235</v>
       </c>
       <c r="L184" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M184" s="38"/>
       <c r="N184" s="38"/>
@@ -12988,7 +12979,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="35">
         <v>470</v>
       </c>
@@ -13015,7 +13006,7 @@
         <v>235</v>
       </c>
       <c r="L185" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M185" s="38"/>
       <c r="N185" s="38"/>
@@ -13152,7 +13143,7 @@
         <v>235</v>
       </c>
       <c r="L188" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M188" s="38"/>
       <c r="N188" s="38"/>
@@ -13290,7 +13281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="35">
         <v>476</v>
       </c>
@@ -13306,23 +13297,19 @@
       <c r="E191" s="43" t="s">
         <v>433</v>
       </c>
-      <c r="F191" s="37">
-        <v>46009</v>
-      </c>
-      <c r="G191" s="37" t="s">
+      <c r="F191" s="37"/>
+      <c r="G191" s="37"/>
+      <c r="H191" s="49"/>
+      <c r="I191" s="42"/>
+      <c r="J191" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K191" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L191" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="H191" s="49" t="s">
-        <v>612</v>
-      </c>
-      <c r="I191" s="42" t="s">
-        <v>613</v>
-      </c>
-      <c r="J191" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K191" s="38"/>
-      <c r="L191" s="38"/>
       <c r="M191" s="38"/>
       <c r="N191" s="38"/>
       <c r="O191" s="38"/>
@@ -13337,7 +13324,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="35">
         <v>477</v>
       </c>
@@ -13364,7 +13351,7 @@
         <v>235</v>
       </c>
       <c r="L192" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M192" s="38"/>
       <c r="N192" s="38"/>
@@ -13380,7 +13367,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="35">
         <v>478</v>
       </c>
@@ -13407,7 +13394,7 @@
         <v>235</v>
       </c>
       <c r="L193" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M193" s="38"/>
       <c r="N193" s="38"/>
@@ -17381,21 +17368,9 @@
     <row r="750" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A9:W193" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="0">
+    <filterColumn colId="2">
       <filters>
-        <filter val="417"/>
-        <filter val="418"/>
-        <filter val="450"/>
-        <filter val="452"/>
-        <filter val="454"/>
-        <filter val="455"/>
-        <filter val="456"/>
-        <filter val="457"/>
-        <filter val="458"/>
-        <filter val="459"/>
-        <filter val="460"/>
-        <filter val="469"/>
-        <filter val="470"/>
+        <filter val="PSS"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -19682,9 +19657,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19832,27 +19810,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19876,9 +19842,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/S1#111#JOINSOFTSRLXX/Joinsoft_Srl/Gestione_Stabilimenti_Termali/Ver_6.31/report-checklist.xlsx
+++ b/GATEWAY/S1#111#JOINSOFTSRLXX/Joinsoft_Srl/Gestione_Stabilimenti_Termali/Ver_6.31/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Desktop\Stampare\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1052114-0F5F-4965-AE62-87DE9DC97F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78BFB12-5E7D-44FE-805D-311830D32841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="-13620" windowWidth="21840" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -2233,16 +2233,16 @@
     <t>JOINSOFT SRL</t>
   </si>
   <si>
-    <t>subject_application_id: Gestione Stabilimenti Termali</t>
-  </si>
-  <si>
-    <t>subject_application_vendor:JoinSoft S.r.l.</t>
-  </si>
-  <si>
-    <t>subject_application_version:Ver 6.31</t>
-  </si>
-  <si>
     <t>Test non previsto per il solo  accreditamento per RSA e RAD</t>
+  </si>
+  <si>
+    <t>subject_application_id: Gestione_Stabilimenti_Termali</t>
+  </si>
+  <si>
+    <t>subject_application_vendor:JoinSoft_Srl</t>
+  </si>
+  <si>
+    <t>subject_application_version:Ver_6.31</t>
   </si>
 </sst>
 </file>
@@ -4345,7 +4345,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L191" sqref="L191"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B3" s="56"/>
       <c r="C3" s="61" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D3" s="53"/>
       <c r="F3" s="6"/>
@@ -4446,7 +4446,7 @@
       <c r="A4" s="57"/>
       <c r="B4" s="58"/>
       <c r="C4" s="61" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D4" s="53"/>
       <c r="E4" s="4"/>
@@ -4473,7 +4473,7 @@
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="61" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D5" s="53"/>
       <c r="F5" s="6"/>
@@ -4659,7 +4659,7 @@
         <v>235</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
@@ -4702,7 +4702,7 @@
         <v>235</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
@@ -4745,7 +4745,7 @@
         <v>235</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
@@ -4788,7 +4788,7 @@
         <v>235</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
@@ -4953,7 +4953,7 @@
         <v>235</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -4996,7 +4996,7 @@
         <v>235</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
@@ -5039,7 +5039,7 @@
         <v>235</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
@@ -5082,7 +5082,7 @@
         <v>235</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
@@ -5125,7 +5125,7 @@
         <v>235</v>
       </c>
       <c r="L20" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M20" s="38"/>
       <c r="N20" s="38"/>
@@ -5168,7 +5168,7 @@
         <v>235</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
@@ -5333,7 +5333,7 @@
         <v>235</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
@@ -5376,7 +5376,7 @@
         <v>235</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
@@ -5419,7 +5419,7 @@
         <v>235</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
@@ -5462,7 +5462,7 @@
         <v>235</v>
       </c>
       <c r="L27" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M27" s="38" t="s">
         <v>64</v>
@@ -5519,7 +5519,7 @@
         <v>235</v>
       </c>
       <c r="L28" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M28" s="38" t="s">
         <v>64</v>
@@ -5576,7 +5576,7 @@
         <v>235</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M29" s="38" t="s">
         <v>64</v>
@@ -5753,7 +5753,7 @@
         <v>235</v>
       </c>
       <c r="L32" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M32" s="38" t="s">
         <v>64</v>
@@ -5810,7 +5810,7 @@
         <v>235</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M33" s="38" t="s">
         <v>64</v>
@@ -5867,7 +5867,7 @@
         <v>235</v>
       </c>
       <c r="L34" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M34" s="38" t="s">
         <v>64</v>
@@ -5924,7 +5924,7 @@
         <v>235</v>
       </c>
       <c r="L35" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
@@ -5967,7 +5967,7 @@
         <v>235</v>
       </c>
       <c r="L36" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
@@ -6010,7 +6010,7 @@
         <v>235</v>
       </c>
       <c r="L37" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M37" s="38"/>
       <c r="N37" s="38"/>
@@ -6053,7 +6053,7 @@
         <v>235</v>
       </c>
       <c r="L38" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M38" s="38"/>
       <c r="N38" s="38"/>
@@ -6096,7 +6096,7 @@
         <v>235</v>
       </c>
       <c r="L39" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
@@ -6139,7 +6139,7 @@
         <v>235</v>
       </c>
       <c r="L40" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
@@ -6182,7 +6182,7 @@
         <v>235</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
@@ -6225,7 +6225,7 @@
         <v>235</v>
       </c>
       <c r="L42" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
@@ -6268,7 +6268,7 @@
         <v>235</v>
       </c>
       <c r="L43" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M43" s="38"/>
       <c r="N43" s="38"/>
@@ -6311,7 +6311,7 @@
         <v>235</v>
       </c>
       <c r="L44" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M44" s="38"/>
       <c r="N44" s="38"/>
@@ -6354,7 +6354,7 @@
         <v>235</v>
       </c>
       <c r="L45" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
@@ -6397,7 +6397,7 @@
         <v>235</v>
       </c>
       <c r="L46" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M46" s="38"/>
       <c r="N46" s="38"/>
@@ -6440,7 +6440,7 @@
         <v>235</v>
       </c>
       <c r="L47" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
@@ -6483,7 +6483,7 @@
         <v>235</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M48" s="38"/>
       <c r="N48" s="38"/>
@@ -6526,7 +6526,7 @@
         <v>235</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M49" s="38"/>
       <c r="N49" s="38"/>
@@ -6569,7 +6569,7 @@
         <v>235</v>
       </c>
       <c r="L50" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M50" s="38"/>
       <c r="N50" s="38"/>
@@ -6612,7 +6612,7 @@
         <v>235</v>
       </c>
       <c r="L51" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M51" s="38"/>
       <c r="N51" s="38"/>
@@ -6655,7 +6655,7 @@
         <v>235</v>
       </c>
       <c r="L52" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M52" s="38"/>
       <c r="N52" s="38"/>
@@ -7674,7 +7674,7 @@
         <v>235</v>
       </c>
       <c r="L69" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M69" s="38"/>
       <c r="N69" s="38"/>
@@ -7717,7 +7717,7 @@
         <v>235</v>
       </c>
       <c r="L70" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M70" s="38"/>
       <c r="N70" s="38"/>
@@ -7760,7 +7760,7 @@
         <v>235</v>
       </c>
       <c r="L71" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M71" s="38"/>
       <c r="N71" s="38"/>
@@ -7803,7 +7803,7 @@
         <v>235</v>
       </c>
       <c r="L72" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M72" s="38"/>
       <c r="N72" s="38"/>
@@ -7846,7 +7846,7 @@
         <v>235</v>
       </c>
       <c r="L73" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M73" s="38"/>
       <c r="N73" s="38"/>
@@ -7889,7 +7889,7 @@
         <v>235</v>
       </c>
       <c r="L74" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M74" s="38"/>
       <c r="N74" s="38"/>
@@ -7932,7 +7932,7 @@
         <v>235</v>
       </c>
       <c r="L75" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M75" s="38"/>
       <c r="N75" s="38"/>
@@ -7975,7 +7975,7 @@
         <v>235</v>
       </c>
       <c r="L76" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M76" s="38"/>
       <c r="N76" s="38"/>
@@ -8018,7 +8018,7 @@
         <v>235</v>
       </c>
       <c r="L77" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M77" s="38"/>
       <c r="N77" s="38"/>
@@ -8061,7 +8061,7 @@
         <v>235</v>
       </c>
       <c r="L78" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M78" s="38"/>
       <c r="N78" s="38"/>
@@ -8104,7 +8104,7 @@
         <v>235</v>
       </c>
       <c r="L79" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M79" s="38"/>
       <c r="N79" s="38"/>
@@ -8147,7 +8147,7 @@
         <v>235</v>
       </c>
       <c r="L80" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M80" s="38"/>
       <c r="N80" s="38"/>
@@ -8190,7 +8190,7 @@
         <v>235</v>
       </c>
       <c r="L81" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M81" s="38"/>
       <c r="N81" s="38"/>
@@ -8233,7 +8233,7 @@
         <v>235</v>
       </c>
       <c r="L82" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M82" s="38"/>
       <c r="N82" s="38"/>
@@ -8276,7 +8276,7 @@
         <v>235</v>
       </c>
       <c r="L83" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M83" s="38"/>
       <c r="N83" s="38"/>
@@ -8319,7 +8319,7 @@
         <v>235</v>
       </c>
       <c r="L84" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M84" s="38"/>
       <c r="N84" s="38"/>
@@ -8362,7 +8362,7 @@
         <v>235</v>
       </c>
       <c r="L85" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M85" s="38"/>
       <c r="N85" s="38"/>
@@ -8405,7 +8405,7 @@
         <v>235</v>
       </c>
       <c r="L86" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M86" s="38"/>
       <c r="N86" s="38"/>
@@ -8448,7 +8448,7 @@
         <v>235</v>
       </c>
       <c r="L87" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M87" s="38"/>
       <c r="N87" s="38"/>
@@ -8491,7 +8491,7 @@
         <v>235</v>
       </c>
       <c r="L88" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M88" s="38"/>
       <c r="N88" s="38"/>
@@ -8534,7 +8534,7 @@
         <v>235</v>
       </c>
       <c r="L89" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M89" s="38"/>
       <c r="N89" s="38"/>
@@ -8577,7 +8577,7 @@
         <v>235</v>
       </c>
       <c r="L90" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M90" s="38"/>
       <c r="N90" s="38"/>
@@ -8620,7 +8620,7 @@
         <v>235</v>
       </c>
       <c r="L91" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M91" s="38"/>
       <c r="N91" s="38"/>
@@ -8663,7 +8663,7 @@
         <v>235</v>
       </c>
       <c r="L92" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M92" s="38"/>
       <c r="N92" s="38"/>
@@ -8706,7 +8706,7 @@
         <v>235</v>
       </c>
       <c r="L93" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M93" s="38"/>
       <c r="N93" s="38"/>
@@ -8749,7 +8749,7 @@
         <v>235</v>
       </c>
       <c r="L94" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M94" s="38"/>
       <c r="N94" s="38"/>
@@ -8792,7 +8792,7 @@
         <v>235</v>
       </c>
       <c r="L95" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M95" s="38"/>
       <c r="N95" s="38"/>
@@ -8835,7 +8835,7 @@
         <v>235</v>
       </c>
       <c r="L96" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M96" s="38"/>
       <c r="N96" s="38"/>
@@ -8878,7 +8878,7 @@
         <v>235</v>
       </c>
       <c r="L97" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M97" s="38"/>
       <c r="N97" s="38"/>
@@ -8921,7 +8921,7 @@
         <v>235</v>
       </c>
       <c r="L98" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M98" s="38"/>
       <c r="N98" s="38"/>
@@ -8964,7 +8964,7 @@
         <v>235</v>
       </c>
       <c r="L99" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M99" s="38"/>
       <c r="N99" s="38"/>
@@ -9007,7 +9007,7 @@
         <v>235</v>
       </c>
       <c r="L100" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M100" s="38"/>
       <c r="N100" s="38"/>
@@ -9050,7 +9050,7 @@
         <v>235</v>
       </c>
       <c r="L101" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M101" s="38"/>
       <c r="N101" s="38"/>
@@ -9093,7 +9093,7 @@
         <v>235</v>
       </c>
       <c r="L102" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M102" s="38"/>
       <c r="N102" s="38"/>
@@ -9136,7 +9136,7 @@
         <v>235</v>
       </c>
       <c r="L103" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M103" s="38"/>
       <c r="N103" s="38"/>
@@ -9179,7 +9179,7 @@
         <v>235</v>
       </c>
       <c r="L104" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M104" s="38"/>
       <c r="N104" s="38"/>
@@ -9222,7 +9222,7 @@
         <v>235</v>
       </c>
       <c r="L105" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M105" s="38"/>
       <c r="N105" s="38"/>
@@ -9265,7 +9265,7 @@
         <v>235</v>
       </c>
       <c r="L106" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M106" s="38"/>
       <c r="N106" s="38"/>
@@ -9308,7 +9308,7 @@
         <v>235</v>
       </c>
       <c r="L107" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M107" s="38"/>
       <c r="N107" s="38"/>
@@ -9351,7 +9351,7 @@
         <v>235</v>
       </c>
       <c r="L108" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M108" s="38"/>
       <c r="N108" s="38"/>
@@ -9394,7 +9394,7 @@
         <v>235</v>
       </c>
       <c r="L109" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M109" s="38"/>
       <c r="N109" s="38"/>
@@ -9437,7 +9437,7 @@
         <v>235</v>
       </c>
       <c r="L110" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M110" s="38"/>
       <c r="N110" s="38"/>
@@ -9480,7 +9480,7 @@
         <v>235</v>
       </c>
       <c r="L111" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M111" s="38"/>
       <c r="N111" s="38"/>
@@ -9523,7 +9523,7 @@
         <v>235</v>
       </c>
       <c r="L112" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M112" s="38"/>
       <c r="N112" s="38"/>
@@ -9566,7 +9566,7 @@
         <v>235</v>
       </c>
       <c r="L113" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M113" s="38"/>
       <c r="N113" s="38"/>
@@ -9609,7 +9609,7 @@
         <v>235</v>
       </c>
       <c r="L114" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M114" s="38"/>
       <c r="N114" s="38"/>
@@ -9652,7 +9652,7 @@
         <v>235</v>
       </c>
       <c r="L115" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M115" s="38"/>
       <c r="N115" s="38"/>
@@ -10610,7 +10610,7 @@
         <v>235</v>
       </c>
       <c r="L131" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M131" s="38"/>
       <c r="N131" s="38"/>
@@ -10653,7 +10653,7 @@
         <v>235</v>
       </c>
       <c r="L132" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M132" s="38"/>
       <c r="N132" s="38"/>
@@ -10696,7 +10696,7 @@
         <v>235</v>
       </c>
       <c r="L133" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M133" s="38"/>
       <c r="N133" s="38"/>
@@ -10739,7 +10739,7 @@
         <v>235</v>
       </c>
       <c r="L134" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M134" s="38"/>
       <c r="N134" s="38"/>
@@ -10782,7 +10782,7 @@
         <v>235</v>
       </c>
       <c r="L135" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M135" s="38"/>
       <c r="N135" s="38"/>
@@ -10825,7 +10825,7 @@
         <v>235</v>
       </c>
       <c r="L136" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M136" s="38"/>
       <c r="N136" s="38"/>
@@ -10868,7 +10868,7 @@
         <v>235</v>
       </c>
       <c r="L137" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M137" s="38"/>
       <c r="N137" s="38"/>
@@ -10911,7 +10911,7 @@
         <v>235</v>
       </c>
       <c r="L138" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M138" s="38"/>
       <c r="N138" s="38"/>
@@ -10954,7 +10954,7 @@
         <v>235</v>
       </c>
       <c r="L139" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M139" s="38"/>
       <c r="N139" s="38"/>
@@ -10997,7 +10997,7 @@
         <v>235</v>
       </c>
       <c r="L140" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M140" s="38"/>
       <c r="N140" s="38"/>
@@ -11040,7 +11040,7 @@
         <v>235</v>
       </c>
       <c r="L141" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M141" s="38"/>
       <c r="N141" s="38"/>
@@ -11083,7 +11083,7 @@
         <v>235</v>
       </c>
       <c r="L142" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
@@ -11126,7 +11126,7 @@
         <v>235</v>
       </c>
       <c r="L143" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
@@ -11169,7 +11169,7 @@
         <v>235</v>
       </c>
       <c r="L144" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
@@ -11212,7 +11212,7 @@
         <v>235</v>
       </c>
       <c r="L145" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M145" s="38"/>
       <c r="N145" s="38"/>
@@ -11255,7 +11255,7 @@
         <v>235</v>
       </c>
       <c r="L146" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M146" s="38"/>
       <c r="N146" s="38"/>
@@ -11298,7 +11298,7 @@
         <v>235</v>
       </c>
       <c r="L147" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
@@ -11341,7 +11341,7 @@
         <v>235</v>
       </c>
       <c r="L148" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M148" s="38"/>
       <c r="N148" s="38"/>
@@ -11384,7 +11384,7 @@
         <v>235</v>
       </c>
       <c r="L149" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M149" s="38"/>
       <c r="N149" s="38"/>
@@ -11427,7 +11427,7 @@
         <v>235</v>
       </c>
       <c r="L150" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M150" s="38"/>
       <c r="N150" s="38"/>
@@ -11470,7 +11470,7 @@
         <v>235</v>
       </c>
       <c r="L151" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M151" s="38"/>
       <c r="N151" s="38"/>
@@ -11513,7 +11513,7 @@
         <v>235</v>
       </c>
       <c r="L152" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M152" s="38"/>
       <c r="N152" s="38"/>
@@ -11556,7 +11556,7 @@
         <v>235</v>
       </c>
       <c r="L153" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M153" s="38" t="s">
         <v>64</v>
@@ -11611,7 +11611,7 @@
         <v>235</v>
       </c>
       <c r="L154" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M154" s="38"/>
       <c r="N154" s="38"/>
@@ -11654,7 +11654,7 @@
         <v>235</v>
       </c>
       <c r="L155" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M155" s="38"/>
       <c r="N155" s="38"/>
@@ -11697,7 +11697,7 @@
         <v>235</v>
       </c>
       <c r="L156" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M156" s="38"/>
       <c r="N156" s="38"/>
@@ -11740,7 +11740,7 @@
         <v>235</v>
       </c>
       <c r="L157" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M157" s="38"/>
       <c r="N157" s="38"/>
@@ -11783,7 +11783,7 @@
         <v>235</v>
       </c>
       <c r="L158" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M158" s="38"/>
       <c r="N158" s="38"/>
@@ -11826,7 +11826,7 @@
         <v>235</v>
       </c>
       <c r="L159" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M159" s="38"/>
       <c r="N159" s="38"/>
@@ -11869,7 +11869,7 @@
         <v>235</v>
       </c>
       <c r="L160" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M160" s="38"/>
       <c r="N160" s="38"/>
@@ -11912,7 +11912,7 @@
         <v>235</v>
       </c>
       <c r="L161" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M161" s="38"/>
       <c r="N161" s="38"/>
@@ -11955,7 +11955,7 @@
         <v>235</v>
       </c>
       <c r="L162" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M162" s="38"/>
       <c r="N162" s="38"/>
@@ -11998,7 +11998,7 @@
         <v>235</v>
       </c>
       <c r="L163" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M163" s="38"/>
       <c r="N163" s="38"/>
@@ -12135,7 +12135,7 @@
         <v>235</v>
       </c>
       <c r="L166" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M166" s="38"/>
       <c r="N166" s="38"/>
@@ -12178,7 +12178,7 @@
         <v>235</v>
       </c>
       <c r="L167" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M167" s="38"/>
       <c r="N167" s="38"/>
@@ -12221,7 +12221,7 @@
         <v>235</v>
       </c>
       <c r="L168" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M168" s="38"/>
       <c r="N168" s="38"/>
@@ -12264,7 +12264,7 @@
         <v>235</v>
       </c>
       <c r="L169" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M169" s="38"/>
       <c r="N169" s="38"/>
@@ -12307,7 +12307,7 @@
         <v>235</v>
       </c>
       <c r="L170" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M170" s="38"/>
       <c r="N170" s="38"/>
@@ -12350,7 +12350,7 @@
         <v>235</v>
       </c>
       <c r="L171" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M171" s="38"/>
       <c r="N171" s="38"/>
@@ -12393,7 +12393,7 @@
         <v>235</v>
       </c>
       <c r="L172" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M172" s="38"/>
       <c r="N172" s="38"/>
@@ -12436,7 +12436,7 @@
         <v>235</v>
       </c>
       <c r="L173" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M173" s="38"/>
       <c r="N173" s="38"/>
@@ -12479,7 +12479,7 @@
         <v>235</v>
       </c>
       <c r="L174" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M174" s="38"/>
       <c r="N174" s="38"/>
@@ -12522,7 +12522,7 @@
         <v>235</v>
       </c>
       <c r="L175" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M175" s="38"/>
       <c r="N175" s="38"/>
@@ -12687,7 +12687,7 @@
         <v>235</v>
       </c>
       <c r="L178" s="35" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M178" s="38"/>
       <c r="N178" s="38"/>
@@ -12730,7 +12730,7 @@
         <v>235</v>
       </c>
       <c r="L179" s="35" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M179" s="38"/>
       <c r="N179" s="38"/>
@@ -12773,7 +12773,7 @@
         <v>235</v>
       </c>
       <c r="L180" s="35" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M180" s="38"/>
       <c r="N180" s="38"/>
@@ -12816,7 +12816,7 @@
         <v>235</v>
       </c>
       <c r="L181" s="35" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M181" s="38"/>
       <c r="N181" s="38"/>
@@ -12859,7 +12859,7 @@
         <v>235</v>
       </c>
       <c r="L182" s="35" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M182" s="38"/>
       <c r="N182" s="38"/>
@@ -12963,7 +12963,7 @@
         <v>235</v>
       </c>
       <c r="L184" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M184" s="38"/>
       <c r="N184" s="38"/>
@@ -13006,7 +13006,7 @@
         <v>235</v>
       </c>
       <c r="L185" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M185" s="38"/>
       <c r="N185" s="38"/>
@@ -13143,7 +13143,7 @@
         <v>235</v>
       </c>
       <c r="L188" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M188" s="38"/>
       <c r="N188" s="38"/>
@@ -13308,7 +13308,7 @@
         <v>235</v>
       </c>
       <c r="L191" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M191" s="38"/>
       <c r="N191" s="38"/>
@@ -13351,7 +13351,7 @@
         <v>235</v>
       </c>
       <c r="L192" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M192" s="38"/>
       <c r="N192" s="38"/>
@@ -13394,7 +13394,7 @@
         <v>235</v>
       </c>
       <c r="L193" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M193" s="38"/>
       <c r="N193" s="38"/>
@@ -19657,12 +19657,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19810,15 +19807,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19842,18 +19851,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/S1#111#JOINSOFTSRLXX/Joinsoft_Srl/Gestione_Stabilimenti_Termali/Ver_6.31/report-checklist.xlsx
+++ b/GATEWAY/S1#111#JOINSOFTSRLXX/Joinsoft_Srl/Gestione_Stabilimenti_Termali/Ver_6.31/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Desktop\Stampare\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78BFB12-5E7D-44FE-805D-311830D32841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBA5A7F-529B-41D1-916B-279B990DC980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1721,12 +1721,6 @@
 *) Il test in questione è da intendersi obbligatorio per gli applicativi che si stanno accreditando per la prima volta per PSS; nel caso di applicativi già accreditati, sarà sufficiente sottomettere il caso di test 478 (Fast Track)</t>
   </si>
   <si>
-    <t>2025-12-06T08:14:48.721Z</t>
-  </si>
-  <si>
-    <t>03550135fdf1229f9120f6cbf2f9097b</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -1736,19 +1730,7 @@
     <t>Viene generato un log che riporta i dettagli sull'errore contenuti nella response con mancato invio a FSE. Gestito in backoffice, viene modficato e reinviato</t>
   </si>
   <si>
-    <t>2025-12-06T08:14:49.210Z</t>
-  </si>
-  <si>
-    <t>c5f9238d65ea8a00a8b0c68d1442236e</t>
-  </si>
-  <si>
     <t>Messaggio errore: Il campo action_id non è corretto</t>
-  </si>
-  <si>
-    <t>2025-12-06T08:14:22.689Z</t>
-  </si>
-  <si>
-    <t>d70a37ce7ed01bec7ce596950c54e966</t>
   </si>
   <si>
     <t>HTTP response for token timeout</t>
@@ -1999,12 +1981,6 @@
     <t>Viene segnalato l'errore, l'utente tramite ausilio del backoffice corregge i dati e reiinva manualmente</t>
   </si>
   <si>
-    <t>2025-12-06T08:14:22.212Z</t>
-  </si>
-  <si>
-    <t>10eed65dbff4b745c1e13db1e3f1aa3b</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -2243,6 +2219,30 @@
   </si>
   <si>
     <t>subject_application_version:Ver_6.31</t>
+  </si>
+  <si>
+    <t>2026-02-27T16:32:16.677Z</t>
+  </si>
+  <si>
+    <t>838685cc01a13a1efe5a36388670f143</t>
+  </si>
+  <si>
+    <t>2026-02-27T16:32:17.189Z</t>
+  </si>
+  <si>
+    <t>be3344b8fc9c13806e1fb482d6be03b7</t>
+  </si>
+  <si>
+    <t>a98d424da5e5f014ad54cf257883d086</t>
+  </si>
+  <si>
+    <t>2026-02-27T16:35:30.282Z</t>
+  </si>
+  <si>
+    <t>2026-02-27T16:35:30.775Z</t>
+  </si>
+  <si>
+    <t>96ba6135629f789eb2778a43f8b6c7d7</t>
   </si>
 </sst>
 </file>
@@ -4342,10 +4342,10 @@
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:D5"/>
+      <selection pane="bottomRight" activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="54" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D2" s="53"/>
       <c r="F2" s="6"/>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B3" s="56"/>
       <c r="C3" s="61" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="D3" s="53"/>
       <c r="F3" s="6"/>
@@ -4446,7 +4446,7 @@
       <c r="A4" s="57"/>
       <c r="B4" s="58"/>
       <c r="C4" s="61" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="D4" s="53"/>
       <c r="E4" s="4"/>
@@ -4473,7 +4473,7 @@
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="61" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="D5" s="53"/>
       <c r="F5" s="6"/>
@@ -4659,7 +4659,7 @@
         <v>235</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
@@ -4702,7 +4702,7 @@
         <v>235</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
@@ -4745,7 +4745,7 @@
         <v>235</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
@@ -4761,7 +4761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35">
         <v>30</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>235</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
@@ -4804,7 +4804,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35">
         <v>31</v>
       </c>
@@ -4824,13 +4824,13 @@
         <v>45997</v>
       </c>
       <c r="G14" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="I14" s="42" t="s">
         <v>439</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>441</v>
       </c>
       <c r="J14" s="38" t="s">
         <v>64</v>
@@ -4844,7 +4844,7 @@
         <v>64</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="P14" s="38" t="s">
         <v>64</v>
@@ -4856,7 +4856,7 @@
         <v>64</v>
       </c>
       <c r="S14" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T14" s="38"/>
       <c r="U14" s="39"/>
@@ -4885,13 +4885,13 @@
         <v>45997</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>530</v>
+        <v>604</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>531</v>
+        <v>605</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J15" s="38" t="s">
         <v>64</v>
@@ -4905,7 +4905,7 @@
         <v>64</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="P15" s="38" t="s">
         <v>64</v>
@@ -4917,7 +4917,7 @@
         <v>64</v>
       </c>
       <c r="S15" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
@@ -4953,7 +4953,7 @@
         <v>235</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -4996,7 +4996,7 @@
         <v>235</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
@@ -5039,7 +5039,7 @@
         <v>235</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
@@ -5082,7 +5082,7 @@
         <v>235</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
@@ -5125,7 +5125,7 @@
         <v>235</v>
       </c>
       <c r="L20" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M20" s="38"/>
       <c r="N20" s="38"/>
@@ -5141,7 +5141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="35">
         <v>38</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>235</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
@@ -5184,7 +5184,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35">
         <v>39</v>
       </c>
@@ -5204,13 +5204,13 @@
         <v>45997</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>444</v>
+        <v>610</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>445</v>
+        <v>611</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J22" s="38" t="s">
         <v>64</v>
@@ -5224,7 +5224,7 @@
         <v>64</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P22" s="38" t="s">
         <v>64</v>
@@ -5236,7 +5236,7 @@
         <v>64</v>
       </c>
       <c r="S22" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T22" s="38"/>
       <c r="U22" s="39"/>
@@ -5265,13 +5265,13 @@
         <v>45997</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>447</v>
+        <v>606</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>448</v>
+        <v>607</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J23" s="38" t="s">
         <v>64</v>
@@ -5285,7 +5285,7 @@
         <v>64</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P23" s="38" t="s">
         <v>64</v>
@@ -5297,7 +5297,7 @@
         <v>64</v>
       </c>
       <c r="S23" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T23" s="38"/>
       <c r="U23" s="39"/>
@@ -5333,7 +5333,7 @@
         <v>235</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
@@ -5376,7 +5376,7 @@
         <v>235</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
@@ -5419,7 +5419,7 @@
         <v>235</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
@@ -5462,7 +5462,7 @@
         <v>235</v>
       </c>
       <c r="L27" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M27" s="38" t="s">
         <v>64</v>
@@ -5481,7 +5481,7 @@
         <v>64</v>
       </c>
       <c r="S27" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T27" s="38"/>
       <c r="U27" s="39" t="s">
@@ -5519,7 +5519,7 @@
         <v>235</v>
       </c>
       <c r="L28" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M28" s="38" t="s">
         <v>64</v>
@@ -5538,7 +5538,7 @@
         <v>64</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T28" s="38"/>
       <c r="U28" s="39" t="s">
@@ -5549,7 +5549,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="35">
         <v>46</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>235</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M29" s="38" t="s">
         <v>64</v>
@@ -5595,7 +5595,7 @@
         <v>64</v>
       </c>
       <c r="S29" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
@@ -5640,7 +5640,7 @@
         <v>64</v>
       </c>
       <c r="O30" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="P30" s="38" t="s">
         <v>64</v>
@@ -5652,7 +5652,7 @@
         <v>64</v>
       </c>
       <c r="S30" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T30" s="38"/>
       <c r="U30" s="39" t="s">
@@ -5683,13 +5683,13 @@
         <v>45997</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="I31" s="42" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="J31" s="38" t="s">
         <v>64</v>
@@ -5703,7 +5703,7 @@
         <v>64</v>
       </c>
       <c r="O31" s="48" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="P31" s="38" t="s">
         <v>64</v>
@@ -5715,7 +5715,7 @@
         <v>64</v>
       </c>
       <c r="S31" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
@@ -5753,7 +5753,7 @@
         <v>235</v>
       </c>
       <c r="L32" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M32" s="38" t="s">
         <v>64</v>
@@ -5772,7 +5772,7 @@
         <v>64</v>
       </c>
       <c r="S32" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T32" s="38"/>
       <c r="U32" s="39" t="s">
@@ -5810,7 +5810,7 @@
         <v>235</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M33" s="38" t="s">
         <v>64</v>
@@ -5829,7 +5829,7 @@
         <v>64</v>
       </c>
       <c r="S33" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T33" s="38"/>
       <c r="U33" s="39" t="s">
@@ -5867,7 +5867,7 @@
         <v>235</v>
       </c>
       <c r="L34" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M34" s="38" t="s">
         <v>64</v>
@@ -5886,7 +5886,7 @@
         <v>64</v>
       </c>
       <c r="S34" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T34" s="38"/>
       <c r="U34" s="39" t="s">
@@ -5924,7 +5924,7 @@
         <v>235</v>
       </c>
       <c r="L35" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
@@ -5967,7 +5967,7 @@
         <v>235</v>
       </c>
       <c r="L36" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
@@ -6010,7 +6010,7 @@
         <v>235</v>
       </c>
       <c r="L37" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M37" s="38"/>
       <c r="N37" s="38"/>
@@ -6053,7 +6053,7 @@
         <v>235</v>
       </c>
       <c r="L38" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M38" s="38"/>
       <c r="N38" s="38"/>
@@ -6096,7 +6096,7 @@
         <v>235</v>
       </c>
       <c r="L39" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
@@ -6139,7 +6139,7 @@
         <v>235</v>
       </c>
       <c r="L40" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
@@ -6182,7 +6182,7 @@
         <v>235</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
@@ -6225,7 +6225,7 @@
         <v>235</v>
       </c>
       <c r="L42" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
@@ -6268,7 +6268,7 @@
         <v>235</v>
       </c>
       <c r="L43" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M43" s="38"/>
       <c r="N43" s="38"/>
@@ -6311,7 +6311,7 @@
         <v>235</v>
       </c>
       <c r="L44" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M44" s="38"/>
       <c r="N44" s="38"/>
@@ -6354,7 +6354,7 @@
         <v>235</v>
       </c>
       <c r="L45" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
@@ -6397,7 +6397,7 @@
         <v>235</v>
       </c>
       <c r="L46" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M46" s="38"/>
       <c r="N46" s="38"/>
@@ -6440,7 +6440,7 @@
         <v>235</v>
       </c>
       <c r="L47" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
@@ -6483,7 +6483,7 @@
         <v>235</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M48" s="38"/>
       <c r="N48" s="38"/>
@@ -6526,7 +6526,7 @@
         <v>235</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M49" s="38"/>
       <c r="N49" s="38"/>
@@ -6569,7 +6569,7 @@
         <v>235</v>
       </c>
       <c r="L50" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M50" s="38"/>
       <c r="N50" s="38"/>
@@ -6612,7 +6612,7 @@
         <v>235</v>
       </c>
       <c r="L51" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M51" s="38"/>
       <c r="N51" s="38"/>
@@ -6655,7 +6655,7 @@
         <v>235</v>
       </c>
       <c r="L52" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M52" s="38"/>
       <c r="N52" s="38"/>
@@ -6691,13 +6691,13 @@
         <v>45997</v>
       </c>
       <c r="G53" s="37" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H53" s="37" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I53" s="42" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="J53" s="38" t="s">
         <v>64</v>
@@ -6711,7 +6711,7 @@
         <v>64</v>
       </c>
       <c r="O53" s="38" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="P53" s="38" t="s">
         <v>64</v>
@@ -6723,7 +6723,7 @@
         <v>64</v>
       </c>
       <c r="S53" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T53" s="38"/>
       <c r="U53" s="39"/>
@@ -6752,13 +6752,13 @@
         <v>45997</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="I54" s="42" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="J54" s="38" t="s">
         <v>64</v>
@@ -6772,7 +6772,7 @@
         <v>64</v>
       </c>
       <c r="O54" s="38" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P54" s="38" t="s">
         <v>64</v>
@@ -6784,7 +6784,7 @@
         <v>64</v>
       </c>
       <c r="S54" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T54" s="38"/>
       <c r="U54" s="39"/>
@@ -6813,13 +6813,13 @@
         <v>45997</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H55" s="37" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I55" s="42" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="J55" s="38" t="s">
         <v>64</v>
@@ -6833,7 +6833,7 @@
         <v>64</v>
       </c>
       <c r="O55" s="38" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="P55" s="38" t="s">
         <v>64</v>
@@ -6845,7 +6845,7 @@
         <v>64</v>
       </c>
       <c r="S55" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T55" s="38"/>
       <c r="U55" s="39"/>
@@ -6874,13 +6874,13 @@
         <v>45997</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H56" s="37" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I56" s="42" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="J56" s="38" t="s">
         <v>64</v>
@@ -6894,7 +6894,7 @@
         <v>64</v>
       </c>
       <c r="O56" s="38" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="P56" s="38" t="s">
         <v>64</v>
@@ -6906,7 +6906,7 @@
         <v>64</v>
       </c>
       <c r="S56" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T56" s="38"/>
       <c r="U56" s="39"/>
@@ -6935,13 +6935,13 @@
         <v>45997</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="I57" s="42" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="J57" s="38" t="s">
         <v>64</v>
@@ -6955,7 +6955,7 @@
         <v>64</v>
       </c>
       <c r="O57" s="38" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="P57" s="38" t="s">
         <v>64</v>
@@ -6967,7 +6967,7 @@
         <v>64</v>
       </c>
       <c r="S57" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T57" s="38"/>
       <c r="U57" s="39"/>
@@ -6996,13 +6996,13 @@
         <v>45997</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="I58" s="42" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J58" s="38" t="s">
         <v>64</v>
@@ -7016,7 +7016,7 @@
         <v>64</v>
       </c>
       <c r="O58" s="38" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="P58" s="38" t="s">
         <v>64</v>
@@ -7028,7 +7028,7 @@
         <v>64</v>
       </c>
       <c r="S58" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T58" s="38"/>
       <c r="U58" s="39"/>
@@ -7057,13 +7057,13 @@
         <v>45997</v>
       </c>
       <c r="G59" s="37" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H59" s="37" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="I59" s="42" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="J59" s="38" t="s">
         <v>64</v>
@@ -7077,7 +7077,7 @@
         <v>64</v>
       </c>
       <c r="O59" s="38" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="P59" s="38" t="s">
         <v>64</v>
@@ -7089,7 +7089,7 @@
         <v>64</v>
       </c>
       <c r="S59" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T59" s="38"/>
       <c r="U59" s="39"/>
@@ -7118,13 +7118,13 @@
         <v>45997</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H60" s="37" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="I60" s="42" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="J60" s="38" t="s">
         <v>64</v>
@@ -7138,7 +7138,7 @@
         <v>64</v>
       </c>
       <c r="O60" s="38" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="P60" s="38" t="s">
         <v>64</v>
@@ -7150,7 +7150,7 @@
         <v>64</v>
       </c>
       <c r="S60" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T60" s="38"/>
       <c r="U60" s="39"/>
@@ -7179,13 +7179,13 @@
         <v>45997</v>
       </c>
       <c r="G61" s="37" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="I61" s="42" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="J61" s="38" t="s">
         <v>64</v>
@@ -7199,7 +7199,7 @@
         <v>64</v>
       </c>
       <c r="O61" s="38" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P61" s="38" t="s">
         <v>64</v>
@@ -7211,7 +7211,7 @@
         <v>64</v>
       </c>
       <c r="S61" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T61" s="38"/>
       <c r="U61" s="39"/>
@@ -7240,13 +7240,13 @@
         <v>45997</v>
       </c>
       <c r="G62" s="37" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="I62" s="42" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="J62" s="38" t="s">
         <v>64</v>
@@ -7260,7 +7260,7 @@
         <v>64</v>
       </c>
       <c r="O62" s="38" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="P62" s="38" t="s">
         <v>64</v>
@@ -7272,7 +7272,7 @@
         <v>64</v>
       </c>
       <c r="S62" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T62" s="38"/>
       <c r="U62" s="39"/>
@@ -7301,13 +7301,13 @@
         <v>45997</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="I63" s="42" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J63" s="38" t="s">
         <v>64</v>
@@ -7321,7 +7321,7 @@
         <v>64</v>
       </c>
       <c r="O63" s="38" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="P63" s="38" t="s">
         <v>64</v>
@@ -7333,7 +7333,7 @@
         <v>64</v>
       </c>
       <c r="S63" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T63" s="38"/>
       <c r="U63" s="39"/>
@@ -7362,13 +7362,13 @@
         <v>45997</v>
       </c>
       <c r="G64" s="37" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H64" s="37" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="I64" s="42" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="J64" s="38" t="s">
         <v>64</v>
@@ -7382,7 +7382,7 @@
         <v>64</v>
       </c>
       <c r="O64" s="38" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="P64" s="38" t="s">
         <v>64</v>
@@ -7394,7 +7394,7 @@
         <v>64</v>
       </c>
       <c r="S64" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T64" s="38"/>
       <c r="U64" s="39"/>
@@ -7423,13 +7423,13 @@
         <v>45997</v>
       </c>
       <c r="G65" s="37" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H65" s="37" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="I65" s="42" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="J65" s="38" t="s">
         <v>64</v>
@@ -7443,7 +7443,7 @@
         <v>64</v>
       </c>
       <c r="O65" s="38" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="P65" s="38" t="s">
         <v>64</v>
@@ -7455,7 +7455,7 @@
         <v>64</v>
       </c>
       <c r="S65" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T65" s="38"/>
       <c r="U65" s="39"/>
@@ -7484,13 +7484,13 @@
         <v>45997</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="H66" s="37" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="I66" s="42" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="J66" s="38" t="s">
         <v>64</v>
@@ -7504,7 +7504,7 @@
         <v>64</v>
       </c>
       <c r="O66" s="38" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="P66" s="38" t="s">
         <v>64</v>
@@ -7516,7 +7516,7 @@
         <v>64</v>
       </c>
       <c r="S66" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T66" s="38"/>
       <c r="U66" s="39"/>
@@ -7545,13 +7545,13 @@
         <v>45997</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H67" s="37" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="I67" s="42" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J67" s="38" t="s">
         <v>64</v>
@@ -7565,7 +7565,7 @@
         <v>64</v>
       </c>
       <c r="O67" s="38" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="P67" s="38" t="s">
         <v>64</v>
@@ -7577,7 +7577,7 @@
         <v>64</v>
       </c>
       <c r="S67" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T67" s="38"/>
       <c r="U67" s="39"/>
@@ -7606,13 +7606,13 @@
         <v>45997</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H68" s="37" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="I68" s="42" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="J68" s="38" t="s">
         <v>64</v>
@@ -7626,7 +7626,7 @@
         <v>64</v>
       </c>
       <c r="O68" s="38" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="P68" s="38" t="s">
         <v>64</v>
@@ -7638,7 +7638,7 @@
         <v>64</v>
       </c>
       <c r="S68" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T68" s="38"/>
       <c r="U68" s="39"/>
@@ -7674,7 +7674,7 @@
         <v>235</v>
       </c>
       <c r="L69" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M69" s="38"/>
       <c r="N69" s="38"/>
@@ -7717,7 +7717,7 @@
         <v>235</v>
       </c>
       <c r="L70" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M70" s="38"/>
       <c r="N70" s="38"/>
@@ -7760,7 +7760,7 @@
         <v>235</v>
       </c>
       <c r="L71" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M71" s="38"/>
       <c r="N71" s="38"/>
@@ -7803,7 +7803,7 @@
         <v>235</v>
       </c>
       <c r="L72" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M72" s="38"/>
       <c r="N72" s="38"/>
@@ -7846,7 +7846,7 @@
         <v>235</v>
       </c>
       <c r="L73" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M73" s="38"/>
       <c r="N73" s="38"/>
@@ -7889,7 +7889,7 @@
         <v>235</v>
       </c>
       <c r="L74" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M74" s="38"/>
       <c r="N74" s="38"/>
@@ -7932,7 +7932,7 @@
         <v>235</v>
       </c>
       <c r="L75" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M75" s="38"/>
       <c r="N75" s="38"/>
@@ -7975,7 +7975,7 @@
         <v>235</v>
       </c>
       <c r="L76" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M76" s="38"/>
       <c r="N76" s="38"/>
@@ -8018,7 +8018,7 @@
         <v>235</v>
       </c>
       <c r="L77" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M77" s="38"/>
       <c r="N77" s="38"/>
@@ -8061,7 +8061,7 @@
         <v>235</v>
       </c>
       <c r="L78" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M78" s="38"/>
       <c r="N78" s="38"/>
@@ -8104,7 +8104,7 @@
         <v>235</v>
       </c>
       <c r="L79" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M79" s="38"/>
       <c r="N79" s="38"/>
@@ -8147,7 +8147,7 @@
         <v>235</v>
       </c>
       <c r="L80" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M80" s="38"/>
       <c r="N80" s="38"/>
@@ -8190,7 +8190,7 @@
         <v>235</v>
       </c>
       <c r="L81" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M81" s="38"/>
       <c r="N81" s="38"/>
@@ -8233,7 +8233,7 @@
         <v>235</v>
       </c>
       <c r="L82" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M82" s="38"/>
       <c r="N82" s="38"/>
@@ -8276,7 +8276,7 @@
         <v>235</v>
       </c>
       <c r="L83" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M83" s="38"/>
       <c r="N83" s="38"/>
@@ -8319,7 +8319,7 @@
         <v>235</v>
       </c>
       <c r="L84" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M84" s="38"/>
       <c r="N84" s="38"/>
@@ -8362,7 +8362,7 @@
         <v>235</v>
       </c>
       <c r="L85" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M85" s="38"/>
       <c r="N85" s="38"/>
@@ -8405,7 +8405,7 @@
         <v>235</v>
       </c>
       <c r="L86" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M86" s="38"/>
       <c r="N86" s="38"/>
@@ -8448,7 +8448,7 @@
         <v>235</v>
       </c>
       <c r="L87" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M87" s="38"/>
       <c r="N87" s="38"/>
@@ -8491,7 +8491,7 @@
         <v>235</v>
       </c>
       <c r="L88" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M88" s="38"/>
       <c r="N88" s="38"/>
@@ -8534,7 +8534,7 @@
         <v>235</v>
       </c>
       <c r="L89" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M89" s="38"/>
       <c r="N89" s="38"/>
@@ -8577,7 +8577,7 @@
         <v>235</v>
       </c>
       <c r="L90" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M90" s="38"/>
       <c r="N90" s="38"/>
@@ -8620,7 +8620,7 @@
         <v>235</v>
       </c>
       <c r="L91" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M91" s="38"/>
       <c r="N91" s="38"/>
@@ -8663,7 +8663,7 @@
         <v>235</v>
       </c>
       <c r="L92" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M92" s="38"/>
       <c r="N92" s="38"/>
@@ -8706,7 +8706,7 @@
         <v>235</v>
       </c>
       <c r="L93" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M93" s="38"/>
       <c r="N93" s="38"/>
@@ -8749,7 +8749,7 @@
         <v>235</v>
       </c>
       <c r="L94" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M94" s="38"/>
       <c r="N94" s="38"/>
@@ -8792,7 +8792,7 @@
         <v>235</v>
       </c>
       <c r="L95" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M95" s="38"/>
       <c r="N95" s="38"/>
@@ -8835,7 +8835,7 @@
         <v>235</v>
       </c>
       <c r="L96" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M96" s="38"/>
       <c r="N96" s="38"/>
@@ -8878,7 +8878,7 @@
         <v>235</v>
       </c>
       <c r="L97" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M97" s="38"/>
       <c r="N97" s="38"/>
@@ -8921,7 +8921,7 @@
         <v>235</v>
       </c>
       <c r="L98" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M98" s="38"/>
       <c r="N98" s="38"/>
@@ -8964,7 +8964,7 @@
         <v>235</v>
       </c>
       <c r="L99" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M99" s="38"/>
       <c r="N99" s="38"/>
@@ -9007,7 +9007,7 @@
         <v>235</v>
       </c>
       <c r="L100" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M100" s="38"/>
       <c r="N100" s="38"/>
@@ -9050,7 +9050,7 @@
         <v>235</v>
       </c>
       <c r="L101" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M101" s="38"/>
       <c r="N101" s="38"/>
@@ -9093,7 +9093,7 @@
         <v>235</v>
       </c>
       <c r="L102" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M102" s="38"/>
       <c r="N102" s="38"/>
@@ -9136,7 +9136,7 @@
         <v>235</v>
       </c>
       <c r="L103" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M103" s="38"/>
       <c r="N103" s="38"/>
@@ -9179,7 +9179,7 @@
         <v>235</v>
       </c>
       <c r="L104" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M104" s="38"/>
       <c r="N104" s="38"/>
@@ -9222,7 +9222,7 @@
         <v>235</v>
       </c>
       <c r="L105" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M105" s="38"/>
       <c r="N105" s="38"/>
@@ -9265,7 +9265,7 @@
         <v>235</v>
       </c>
       <c r="L106" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M106" s="38"/>
       <c r="N106" s="38"/>
@@ -9308,7 +9308,7 @@
         <v>235</v>
       </c>
       <c r="L107" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M107" s="38"/>
       <c r="N107" s="38"/>
@@ -9351,7 +9351,7 @@
         <v>235</v>
       </c>
       <c r="L108" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M108" s="38"/>
       <c r="N108" s="38"/>
@@ -9394,7 +9394,7 @@
         <v>235</v>
       </c>
       <c r="L109" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M109" s="38"/>
       <c r="N109" s="38"/>
@@ -9437,7 +9437,7 @@
         <v>235</v>
       </c>
       <c r="L110" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M110" s="38"/>
       <c r="N110" s="38"/>
@@ -9480,7 +9480,7 @@
         <v>235</v>
       </c>
       <c r="L111" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M111" s="38"/>
       <c r="N111" s="38"/>
@@ -9523,7 +9523,7 @@
         <v>235</v>
       </c>
       <c r="L112" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M112" s="38"/>
       <c r="N112" s="38"/>
@@ -9566,7 +9566,7 @@
         <v>235</v>
       </c>
       <c r="L113" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M113" s="38"/>
       <c r="N113" s="38"/>
@@ -9609,7 +9609,7 @@
         <v>235</v>
       </c>
       <c r="L114" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M114" s="38"/>
       <c r="N114" s="38"/>
@@ -9652,7 +9652,7 @@
         <v>235</v>
       </c>
       <c r="L115" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M115" s="38"/>
       <c r="N115" s="38"/>
@@ -9688,13 +9688,13 @@
         <v>45997</v>
       </c>
       <c r="G116" s="37" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="H116" s="37" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="I116" s="42" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="J116" s="38" t="s">
         <v>64</v>
@@ -9708,7 +9708,7 @@
         <v>64</v>
       </c>
       <c r="O116" s="38" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="P116" s="38" t="s">
         <v>64</v>
@@ -9720,7 +9720,7 @@
         <v>64</v>
       </c>
       <c r="S116" s="38" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="T116" s="38"/>
       <c r="U116" s="39"/>
@@ -9749,13 +9749,13 @@
         <v>45997</v>
       </c>
       <c r="G117" s="37" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="H117" s="37" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="I117" s="42" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="J117" s="38" t="s">
         <v>64</v>
@@ -9769,7 +9769,7 @@
         <v>64</v>
       </c>
       <c r="O117" s="38" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P117" s="38" t="s">
         <v>64</v>
@@ -9781,7 +9781,7 @@
         <v>64</v>
       </c>
       <c r="S117" s="38" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="T117" s="38"/>
       <c r="U117" s="39"/>
@@ -9810,13 +9810,13 @@
         <v>45997</v>
       </c>
       <c r="G118" s="37" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="H118" s="37" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="I118" s="42" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="J118" s="38" t="s">
         <v>64</v>
@@ -9830,7 +9830,7 @@
         <v>64</v>
       </c>
       <c r="O118" s="38" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="P118" s="38" t="s">
         <v>64</v>
@@ -9842,7 +9842,7 @@
         <v>64</v>
       </c>
       <c r="S118" s="38" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="T118" s="38"/>
       <c r="U118" s="39"/>
@@ -9871,13 +9871,13 @@
         <v>45997</v>
       </c>
       <c r="G119" s="37" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="H119" s="37" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="I119" s="42" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="J119" s="38" t="s">
         <v>64</v>
@@ -9891,7 +9891,7 @@
         <v>64</v>
       </c>
       <c r="O119" s="38" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="P119" s="38" t="s">
         <v>64</v>
@@ -9903,7 +9903,7 @@
         <v>64</v>
       </c>
       <c r="S119" s="38" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="T119" s="38"/>
       <c r="U119" s="39"/>
@@ -9932,13 +9932,13 @@
         <v>45997</v>
       </c>
       <c r="G120" s="37" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="H120" s="37" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="J120" s="38" t="s">
         <v>64</v>
@@ -9952,7 +9952,7 @@
         <v>64</v>
       </c>
       <c r="O120" s="38" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="P120" s="38" t="s">
         <v>64</v>
@@ -9964,7 +9964,7 @@
         <v>64</v>
       </c>
       <c r="S120" s="38" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="T120" s="38"/>
       <c r="U120" s="39"/>
@@ -9993,13 +9993,13 @@
         <v>45997</v>
       </c>
       <c r="G121" s="37" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="H121" s="37" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="I121" s="42" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="J121" s="38" t="s">
         <v>64</v>
@@ -10013,7 +10013,7 @@
         <v>64</v>
       </c>
       <c r="O121" s="38" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="P121" s="38" t="s">
         <v>64</v>
@@ -10025,7 +10025,7 @@
         <v>64</v>
       </c>
       <c r="S121" s="38" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="T121" s="38"/>
       <c r="U121" s="39"/>
@@ -10054,13 +10054,13 @@
         <v>45997</v>
       </c>
       <c r="G122" s="37" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="H122" s="37" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="I122" s="42" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="J122" s="38" t="s">
         <v>64</v>
@@ -10074,7 +10074,7 @@
         <v>64</v>
       </c>
       <c r="O122" s="38" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="P122" s="38" t="s">
         <v>64</v>
@@ -10086,7 +10086,7 @@
         <v>64</v>
       </c>
       <c r="S122" s="38" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="T122" s="38"/>
       <c r="U122" s="39"/>
@@ -10115,13 +10115,13 @@
         <v>45997</v>
       </c>
       <c r="G123" s="37" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="H123" s="37" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="I123" s="42" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="J123" s="38" t="s">
         <v>64</v>
@@ -10135,7 +10135,7 @@
         <v>64</v>
       </c>
       <c r="O123" s="38" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="P123" s="38" t="s">
         <v>64</v>
@@ -10147,7 +10147,7 @@
         <v>64</v>
       </c>
       <c r="S123" s="38" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="T123" s="38"/>
       <c r="U123" s="39"/>
@@ -10176,13 +10176,13 @@
         <v>45997</v>
       </c>
       <c r="G124" s="37" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="H124" s="37" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="I124" s="42" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="J124" s="38" t="s">
         <v>64</v>
@@ -10196,7 +10196,7 @@
         <v>64</v>
       </c>
       <c r="O124" s="38" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="P124" s="38" t="s">
         <v>64</v>
@@ -10208,7 +10208,7 @@
         <v>64</v>
       </c>
       <c r="S124" s="38" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="T124" s="38"/>
       <c r="U124" s="39"/>
@@ -10237,13 +10237,13 @@
         <v>45997</v>
       </c>
       <c r="G125" s="37" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="H125" s="37" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="J125" s="38" t="s">
         <v>64</v>
@@ -10257,7 +10257,7 @@
         <v>64</v>
       </c>
       <c r="O125" s="38" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="P125" s="38" t="s">
         <v>64</v>
@@ -10269,7 +10269,7 @@
         <v>64</v>
       </c>
       <c r="S125" s="38" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="T125" s="38"/>
       <c r="U125" s="39"/>
@@ -10298,13 +10298,13 @@
         <v>45997</v>
       </c>
       <c r="G126" s="37" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="H126" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="J126" s="38" t="s">
         <v>64</v>
@@ -10318,7 +10318,7 @@
         <v>64</v>
       </c>
       <c r="O126" s="38" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="P126" s="38" t="s">
         <v>64</v>
@@ -10330,7 +10330,7 @@
         <v>226</v>
       </c>
       <c r="S126" s="38" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="T126" s="38"/>
       <c r="U126" s="39"/>
@@ -10359,13 +10359,13 @@
         <v>45997</v>
       </c>
       <c r="G127" s="37" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H127" s="37" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="I127" s="42" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J127" s="38" t="s">
         <v>64</v>
@@ -10379,7 +10379,7 @@
         <v>64</v>
       </c>
       <c r="O127" s="38" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="P127" s="38" t="s">
         <v>64</v>
@@ -10391,7 +10391,7 @@
         <v>64</v>
       </c>
       <c r="S127" s="38" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="T127" s="38"/>
       <c r="U127" s="39"/>
@@ -10420,13 +10420,13 @@
         <v>45997</v>
       </c>
       <c r="G128" s="37" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="H128" s="37" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="I128" s="42" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="J128" s="38" t="s">
         <v>64</v>
@@ -10440,7 +10440,7 @@
         <v>64</v>
       </c>
       <c r="O128" s="38" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="P128" s="38" t="s">
         <v>64</v>
@@ -10452,7 +10452,7 @@
         <v>64</v>
       </c>
       <c r="S128" s="38" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="T128" s="38"/>
       <c r="U128" s="39"/>
@@ -10481,13 +10481,13 @@
         <v>45997</v>
       </c>
       <c r="G129" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="H129" s="37" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="I129" s="42" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="J129" s="38" t="s">
         <v>64</v>
@@ -10501,7 +10501,7 @@
         <v>64</v>
       </c>
       <c r="O129" s="38" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="P129" s="38" t="s">
         <v>64</v>
@@ -10513,7 +10513,7 @@
         <v>64</v>
       </c>
       <c r="S129" s="38" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="T129" s="38"/>
       <c r="U129" s="39"/>
@@ -10542,13 +10542,13 @@
         <v>45997</v>
       </c>
       <c r="G130" s="37" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="H130" s="37" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="I130" s="42" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="J130" s="38" t="s">
         <v>64</v>
@@ -10562,7 +10562,7 @@
         <v>64</v>
       </c>
       <c r="O130" s="38" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="P130" s="38" t="s">
         <v>64</v>
@@ -10574,7 +10574,7 @@
         <v>64</v>
       </c>
       <c r="S130" s="38" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="T130" s="38"/>
       <c r="U130" s="39"/>
@@ -10583,7 +10583,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="35">
         <v>175</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>235</v>
       </c>
       <c r="L131" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M131" s="38"/>
       <c r="N131" s="38"/>
@@ -10626,7 +10626,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="35">
         <v>177</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>235</v>
       </c>
       <c r="L132" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M132" s="38"/>
       <c r="N132" s="38"/>
@@ -10669,7 +10669,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="35">
         <v>178</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>235</v>
       </c>
       <c r="L133" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M133" s="38"/>
       <c r="N133" s="38"/>
@@ -10712,7 +10712,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="35">
         <v>179</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>235</v>
       </c>
       <c r="L134" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M134" s="38"/>
       <c r="N134" s="38"/>
@@ -10755,7 +10755,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="35">
         <v>180</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>235</v>
       </c>
       <c r="L135" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M135" s="38"/>
       <c r="N135" s="38"/>
@@ -10798,7 +10798,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="35">
         <v>181</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>235</v>
       </c>
       <c r="L136" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M136" s="38"/>
       <c r="N136" s="38"/>
@@ -10841,7 +10841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="35">
         <v>182</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>235</v>
       </c>
       <c r="L137" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M137" s="38"/>
       <c r="N137" s="38"/>
@@ -10884,7 +10884,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="35">
         <v>183</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>235</v>
       </c>
       <c r="L138" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M138" s="38"/>
       <c r="N138" s="38"/>
@@ -10927,7 +10927,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="35">
         <v>184</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>235</v>
       </c>
       <c r="L139" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M139" s="38"/>
       <c r="N139" s="38"/>
@@ -10970,7 +10970,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="35">
         <v>185</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>235</v>
       </c>
       <c r="L140" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M140" s="38"/>
       <c r="N140" s="38"/>
@@ -11013,7 +11013,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="35">
         <v>186</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>235</v>
       </c>
       <c r="L141" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M141" s="38"/>
       <c r="N141" s="38"/>
@@ -11056,7 +11056,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="35">
         <v>187</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>235</v>
       </c>
       <c r="L142" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
@@ -11099,7 +11099,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="35">
         <v>188</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>235</v>
       </c>
       <c r="L143" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
@@ -11142,7 +11142,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="35">
         <v>189</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>235</v>
       </c>
       <c r="L144" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
@@ -11185,7 +11185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="35">
         <v>190</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>235</v>
       </c>
       <c r="L145" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M145" s="38"/>
       <c r="N145" s="38"/>
@@ -11255,7 +11255,7 @@
         <v>235</v>
       </c>
       <c r="L146" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M146" s="38"/>
       <c r="N146" s="38"/>
@@ -11298,7 +11298,7 @@
         <v>235</v>
       </c>
       <c r="L147" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
@@ -11341,7 +11341,7 @@
         <v>235</v>
       </c>
       <c r="L148" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M148" s="38"/>
       <c r="N148" s="38"/>
@@ -11384,7 +11384,7 @@
         <v>235</v>
       </c>
       <c r="L149" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M149" s="38"/>
       <c r="N149" s="38"/>
@@ -11427,7 +11427,7 @@
         <v>235</v>
       </c>
       <c r="L150" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M150" s="38"/>
       <c r="N150" s="38"/>
@@ -11470,7 +11470,7 @@
         <v>235</v>
       </c>
       <c r="L151" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M151" s="38"/>
       <c r="N151" s="38"/>
@@ -11513,7 +11513,7 @@
         <v>235</v>
       </c>
       <c r="L152" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M152" s="38"/>
       <c r="N152" s="38"/>
@@ -11556,7 +11556,7 @@
         <v>235</v>
       </c>
       <c r="L153" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M153" s="38" t="s">
         <v>64</v>
@@ -11575,7 +11575,7 @@
         <v>64</v>
       </c>
       <c r="S153" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T153" s="38"/>
       <c r="U153" s="39"/>
@@ -11611,7 +11611,7 @@
         <v>235</v>
       </c>
       <c r="L154" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M154" s="38"/>
       <c r="N154" s="38"/>
@@ -11654,7 +11654,7 @@
         <v>235</v>
       </c>
       <c r="L155" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M155" s="38"/>
       <c r="N155" s="38"/>
@@ -11697,7 +11697,7 @@
         <v>235</v>
       </c>
       <c r="L156" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M156" s="38"/>
       <c r="N156" s="38"/>
@@ -11740,7 +11740,7 @@
         <v>235</v>
       </c>
       <c r="L157" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M157" s="38"/>
       <c r="N157" s="38"/>
@@ -11783,7 +11783,7 @@
         <v>235</v>
       </c>
       <c r="L158" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M158" s="38"/>
       <c r="N158" s="38"/>
@@ -11826,7 +11826,7 @@
         <v>235</v>
       </c>
       <c r="L159" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M159" s="38"/>
       <c r="N159" s="38"/>
@@ -11869,7 +11869,7 @@
         <v>235</v>
       </c>
       <c r="L160" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M160" s="38"/>
       <c r="N160" s="38"/>
@@ -11912,7 +11912,7 @@
         <v>235</v>
       </c>
       <c r="L161" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M161" s="38"/>
       <c r="N161" s="38"/>
@@ -11955,7 +11955,7 @@
         <v>235</v>
       </c>
       <c r="L162" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M162" s="38"/>
       <c r="N162" s="38"/>
@@ -11998,7 +11998,7 @@
         <v>235</v>
       </c>
       <c r="L163" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M163" s="38"/>
       <c r="N163" s="38"/>
@@ -12034,13 +12034,13 @@
         <v>45997</v>
       </c>
       <c r="G164" s="37" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="H164" s="37" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="I164" s="42" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="J164" s="38" t="s">
         <v>64</v>
@@ -12081,13 +12081,13 @@
         <v>45997</v>
       </c>
       <c r="G165" s="37" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="H165" s="37" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="I165" s="42" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="J165" s="38" t="s">
         <v>64</v>
@@ -12135,7 +12135,7 @@
         <v>235</v>
       </c>
       <c r="L166" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M166" s="38"/>
       <c r="N166" s="38"/>
@@ -12178,7 +12178,7 @@
         <v>235</v>
       </c>
       <c r="L167" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M167" s="38"/>
       <c r="N167" s="38"/>
@@ -12221,7 +12221,7 @@
         <v>235</v>
       </c>
       <c r="L168" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M168" s="38"/>
       <c r="N168" s="38"/>
@@ -12264,7 +12264,7 @@
         <v>235</v>
       </c>
       <c r="L169" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M169" s="38"/>
       <c r="N169" s="38"/>
@@ -12307,7 +12307,7 @@
         <v>235</v>
       </c>
       <c r="L170" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M170" s="38"/>
       <c r="N170" s="38"/>
@@ -12350,7 +12350,7 @@
         <v>235</v>
       </c>
       <c r="L171" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M171" s="38"/>
       <c r="N171" s="38"/>
@@ -12393,7 +12393,7 @@
         <v>235</v>
       </c>
       <c r="L172" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M172" s="38"/>
       <c r="N172" s="38"/>
@@ -12436,7 +12436,7 @@
         <v>235</v>
       </c>
       <c r="L173" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M173" s="38"/>
       <c r="N173" s="38"/>
@@ -12479,7 +12479,7 @@
         <v>235</v>
       </c>
       <c r="L174" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M174" s="38"/>
       <c r="N174" s="38"/>
@@ -12522,7 +12522,7 @@
         <v>235</v>
       </c>
       <c r="L175" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M175" s="38"/>
       <c r="N175" s="38"/>
@@ -12558,13 +12558,13 @@
         <v>45997</v>
       </c>
       <c r="G176" s="35" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="H176" s="35" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="I176" s="35" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="J176" s="38" t="s">
         <v>64</v>
@@ -12578,7 +12578,7 @@
         <v>64</v>
       </c>
       <c r="O176" s="35" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="P176" s="38" t="s">
         <v>64</v>
@@ -12590,7 +12590,7 @@
         <v>64</v>
       </c>
       <c r="S176" s="35" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T176" s="38"/>
       <c r="U176" s="35"/>
@@ -12619,13 +12619,13 @@
         <v>45997</v>
       </c>
       <c r="G177" s="35" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H177" s="35" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="I177" s="35" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="J177" s="38" t="s">
         <v>64</v>
@@ -12639,7 +12639,7 @@
         <v>64</v>
       </c>
       <c r="O177" s="35" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="P177" s="38" t="s">
         <v>64</v>
@@ -12651,7 +12651,7 @@
         <v>64</v>
       </c>
       <c r="S177" s="35" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T177" s="38"/>
       <c r="U177" s="35"/>
@@ -12687,7 +12687,7 @@
         <v>235</v>
       </c>
       <c r="L178" s="35" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M178" s="38"/>
       <c r="N178" s="38"/>
@@ -12730,7 +12730,7 @@
         <v>235</v>
       </c>
       <c r="L179" s="35" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M179" s="38"/>
       <c r="N179" s="38"/>
@@ -12773,7 +12773,7 @@
         <v>235</v>
       </c>
       <c r="L180" s="35" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M180" s="38"/>
       <c r="N180" s="38"/>
@@ -12816,7 +12816,7 @@
         <v>235</v>
       </c>
       <c r="L181" s="35" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M181" s="38"/>
       <c r="N181" s="38"/>
@@ -12859,7 +12859,7 @@
         <v>235</v>
       </c>
       <c r="L182" s="35" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M182" s="38"/>
       <c r="N182" s="38"/>
@@ -12895,13 +12895,13 @@
         <v>45997</v>
       </c>
       <c r="G183" s="35" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="H183" s="35" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="I183" s="35" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="J183" s="38" t="s">
         <v>64</v>
@@ -12915,7 +12915,7 @@
         <v>64</v>
       </c>
       <c r="O183" s="35" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="P183" s="38" t="s">
         <v>64</v>
@@ -12927,7 +12927,7 @@
         <v>64</v>
       </c>
       <c r="S183" s="35" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="T183" s="38"/>
       <c r="U183" s="35"/>
@@ -12936,7 +12936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="35">
         <v>469</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>235</v>
       </c>
       <c r="L184" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M184" s="38"/>
       <c r="N184" s="38"/>
@@ -13006,7 +13006,7 @@
         <v>235</v>
       </c>
       <c r="L185" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M185" s="38"/>
       <c r="N185" s="38"/>
@@ -13042,13 +13042,13 @@
         <v>45997</v>
       </c>
       <c r="G186" s="37" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="H186" s="37" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="I186" s="42" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="J186" s="38" t="s">
         <v>64</v>
@@ -13089,13 +13089,13 @@
         <v>45997</v>
       </c>
       <c r="G187" s="37" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H187" s="37" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="I187" s="42" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="J187" s="38" t="s">
         <v>64</v>
@@ -13143,7 +13143,7 @@
         <v>235</v>
       </c>
       <c r="L188" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M188" s="38"/>
       <c r="N188" s="38"/>
@@ -13179,13 +13179,13 @@
         <v>45997</v>
       </c>
       <c r="G189" s="37" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H189" s="37" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I189" s="42" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="J189" s="38" t="s">
         <v>64</v>
@@ -13199,7 +13199,7 @@
         <v>64</v>
       </c>
       <c r="O189" s="38" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="P189" s="38" t="s">
         <v>64</v>
@@ -13211,7 +13211,7 @@
         <v>64</v>
       </c>
       <c r="S189" s="38" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="T189" s="38"/>
       <c r="U189" s="39"/>
@@ -13240,13 +13240,13 @@
         <v>45997</v>
       </c>
       <c r="G190" s="37" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="H190" s="37" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="I190" s="42" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="J190" s="38" t="s">
         <v>64</v>
@@ -13260,7 +13260,7 @@
         <v>64</v>
       </c>
       <c r="O190" s="38" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="P190" s="38" t="s">
         <v>64</v>
@@ -13272,7 +13272,7 @@
         <v>64</v>
       </c>
       <c r="S190" s="38" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="T190" s="38"/>
       <c r="U190" s="39"/>
@@ -13281,7 +13281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="35">
         <v>476</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>235</v>
       </c>
       <c r="L191" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M191" s="38"/>
       <c r="N191" s="38"/>
@@ -13324,7 +13324,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="35">
         <v>477</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>235</v>
       </c>
       <c r="L192" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M192" s="38"/>
       <c r="N192" s="38"/>
@@ -13367,7 +13367,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="35">
         <v>478</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>235</v>
       </c>
       <c r="L193" s="38" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M193" s="38"/>
       <c r="N193" s="38"/>
@@ -17368,9 +17368,10 @@
     <row r="750" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A9:W193" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="2">
+    <filterColumn colId="0">
       <filters>
-        <filter val="PSS"/>
+        <filter val="31"/>
+        <filter val="39"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -19657,9 +19658,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19807,27 +19811,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19851,9 +19843,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
